--- a/repo/artificial_news.xlsx
+++ b/repo/artificial_news.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ke\Desktop\專題\repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIN\Desktop\WebScrapying_news\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AD6252-9E7F-4856-90F6-93B65E2160DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808A23D6-9724-4351-A518-BB8BA392AD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5868" yWindow="-12" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="135" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="418">
   <si>
     <t>Title</t>
   </si>
@@ -1022,6 +1022,695 @@
   <si>
     <t>雲林高鐵</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嚴密監測水資源補充　毋需擔心地層下陷</t>
+  </si>
+  <si>
+    <t>旗山溪與荖濃溪交會匯流進入高屏溪，是大高雄地區民生用水主動脈，也是枯水期間地下水主要供水區域，如何永續地下水資源，是當前重要課題。經濟部水利署規劃在高屏溪跟荖濃溪上游，設置地下水補注區，112年已設置約11處，總計460公頃，評估一年補注將近1400萬噸補注量。地下水補注區利用疏浚砂石在河床蓋微型土堤，讓水流受阻、流速變慢，增加滯水範圍讓更多水滲入地下，當抽取完地下水後，透過自然入滲補注，就能讓地下水位快速回復平常水位以上，使地下水源得以永續。1960年代起，台灣引進地下水鑿井技術，台灣西半部沿海養殖漁業盛行，大量地超抽地下水，使得地層下陷、海水倒灌，土壤鹽化等問題層出不窮，有關高雄運用地下水資源是否會造成地層下陷，水利署透過長期監控做出釋疑。經濟部水利署水文技術組科長吳明哲表示，高屏溪沿岸屏東平原地下水區，主要以砂礫石層為主，礫石跟礫石之間顆粒在有地下水的時候，不會有壓密行為，地下水一旦下降，因顆粒與顆粒支撐，不會產生壓密沉陷。另根據屏東科技大學名譽教授丁澈士老師實驗，模擬高雄地區砂礫石層抽水情況，證明砂礫石層比較不會出現地層下陷，民眾不必過度擔心。經濟部水利署南區水資源局副局長何達夫說明，軟礫石層跟粘土層不一樣，粘土層抽水後會下陷，但軟礫石層是一個石頭接著一個石頭，把石頭間水抽掉，抽走得很快補充也非常快，不會有地層下陷問題。專家強調，只要不過度超抽，加上嚴密監測，就不必擔心地層下陷，學者也呼籲，豐水期應多加利用地下水，不僅能夠避免水資源浪費，還能夠防洪減災。高屏溪擁有豐沛的地下水資源，從鑿井取水到地下水補注，不僅讓水資源得以永續，也成為高雄地區對抗旱象的關鍵利器。</t>
+  </si>
+  <si>
+    <t>['高雄市政府廣告', '地下水', '水資源']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/11/06</t>
+  </si>
+  <si>
+    <t>高雄市政府廣告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗旱水井備援補位 不影響農業用水</t>
+  </si>
+  <si>
+    <t>順著高屏溪右岸來到高雄大樹區的九曲堂工作站，從空中俯瞰一個個用圍欄圍起的方形區塊，排列整齊，錯落其中，靠近一看才發現這是一根根打入地底下的水管，稱為抗旱水井。高雄市政府水利局表示，所謂的抗旱水井是抽取深層地下水，從地表往下150米深，透過抽水設備，將深層地下水經由抗旱水井取出，相較於海淡廠、再生水等等，取水更為快速、成本更低，供水量也更大的地下水，成為抗旱期間的關鍵水源。類似的抗旱水井已在高雄陸續開鑿110座，每日供水量將近35萬噸，雖然穩定水情，但是大規模鑿井卻讓當地農民相當憂心，是否會剝奪農業用水。對此專家解釋，抗旱水井是取用深度達100到150公尺的深層地下水，與一般深20到40公尺間淺層地下水的農業灌溉井，含水層不同，且兩者間還有阻水層相互阻隔，因此開鑿抗旱水井對於農業用水並不會產生影響。水利局局長蔡長展指出，抗旱水井是備援用水，使用時間大約在每年3月至5月，藉由雨水對地下水進行補注，對農業灌溉用水不受影響。根據地下水位監測資料顯示，112年1月份地下水位高點落在14公尺，接著隨著枯水期到來，地下水位在5月份降到了大約6公尺，隨後迅期到來開始降雨，加上高雄市政府與水利署合作，推動高屏溪流域河道疏濬補注地下水計畫，增加地下水量，使得9月份地下水位上升到16公尺，足足比枯水期高出了10公尺，甚至高於1月份水位。在枯水期嚴密監控，視情況抽用，在豐水期加強地下水補注，便能夠達到水資源永續發展的目標。經濟部水利署副署長林元鵬說明，高雄地區總共有11口的觀測水井，所有水井都會進行管控，只要是有效地去管控數據，地下水在高雄地區是可以當作一個安全的用水。在嚴密監控確保不會造成地層下陷及影響水源保育的情況之下，短期備援的抗旱水井不僅成了抗旱功臣，也賦予地下水資源更多元運用的可能。</t>
+  </si>
+  <si>
+    <t>['高雄市政府廣告', '抗旱水井', '深層地下水']</t>
+  </si>
+  <si>
+    <t>2023/11/07</t>
+  </si>
+  <si>
+    <t>回響／屏東種電惹議 縣府強調非無限制開發仍有農地可耕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要聞</t>
+  </si>
+  <si>
+    <t>聯合報陽光行動專題報導光電進駐屏東，種電範圍遍及農地、山區到有文資價值的二戰遺跡，造成家園地景地貌變遷，衝擊老農生計、變相迫遷青農，更被地方形容為「惡鄰」，產生蛇鼠與害蟲，提升鄰田管理困難度，還潛藏糧食危機。 縣府環保局長顏幸苑表示，光電不會無限擴張，目前種電專區仍有約3千公頃可耕作並專案輔導業者除草，一定會兼顧農業永續發展。
+顏幸苑表示，台電饋線有上限規定，目前在既有的電力設施併網上限下，有限度的推動光電專區，不會無限制使用農地種電，而東港鎮、林邊、佳冬、枋寮鄉等4鄉鎮專案截至去年底，共併網約3百兆瓦光電，該區農地總面積約有3800公頃，至少還有約3千公頃面積可農作，使用農地比例不到4鄉鎮農地總面積一成。
+她強調，從未要求廠商提供「不利耕作同意書」或其他不平等條約相關文件，針對部分地區爭議案件，在未取得居民同意之前，皆已要求業者停止施工，另太陽能案場內並無食物來源，應非屬引來老鼠的主因，目前已要求專案輔導業者定期進行除草，維護周遭環境整潔。
+她指出，屏東綠能推動政策以「專案專區計畫」、「土地複合式利用」等2大策略為優先，有限度使用相對不適合耕種的土地發展綠能，提供給地主、農民階段性活化土地新選擇，對於無力管理田間工作，又有土地鹽化等不利因素無法耕作的年邁老農，則可以有穩定收入過退休生活。至於非專案專區的鄉鎮，則優先鼓勵廠商以「土地複合式利用」方式，利用既有設施結合太陽光電設施，有效利用公共空間。
+屏縣府綠能辦公室表示，尊重私有地主有處置自家土地財產，及業者依法申請案件的權利，相關審查過程將審慎關注山坡地、耕作農地、歷史遺跡、生態保育或重要觀光景點聯絡道路沿線等議題，並要求廠商提出因應作為，以避免衍生爭議性問題，兼顧開發合理性及維護本縣農民耕作權益。
+生利能源表示，屏東枋寮案場是合法開發，於2020年9月於案場內發現碉堡等歷史遺構後，隨即保留並主動展開一連串文資保護作為，並無二戰槍堡被挖除等情事。</t>
+  </si>
+  <si>
+    <t>['地層下陷', '屏東縣', '農地']</t>
+  </si>
+  <si>
+    <t>2024/01/08</t>
+  </si>
+  <si>
+    <t>屏東種電</t>
+  </si>
+  <si>
+    <t>屏縣農地不利耕地設綠能 環保局：發電量800MW非無限制擴張</t>
+  </si>
+  <si>
+    <t>〔記者陳彥廷／屏東報導〕屏東縣政府於東港、林邊、佳冬及枋寮4個沿海鄉鎮，劃定「嚴重地層下陷區光電計畫」專區，為確保農民耕作權，不過，近來坊間質疑聲浪漸漲，環保局強調，該區計畫發電量為800MW（百萬瓦），不會無限制擴張，因此至少會仍有3000公頃以上的農地可供農作。
+地面型光電場成為選戰攻防議題，屏東因沿海嚴重地層下陷區為全國首個縣府核淮得設光電案場專案，成在野黨攻詰對象，近期坊間又再傳出農民因種電失去農保、老農退場又留不住青農及蛇鼠窩藏副作用等爭議。
+屏縣府環保局指出，這4鄉鎮過去因超抽地下水，曾列為嚴重地層下陷區，現仍屬第1、2級地下水管制區，且在海水上溯下，許多土地都已出現鹽化，不少已是不利耕地多年，因此有縣府在尊重地主利用土地意願及權益前提及既有電力設施併網上限條件下，有限度的推動光電專區，預計發電量為800MW。
+環保局指出，在部分農地轉作太陽光電後，減少農民抽取林邊溪下游地下水需求，並搭配上游設置大潮州人工湖補注地下水，減緩地層下陷，達到國土復育及產業永續發展目的。而近年同樣大小的光電板發電效率已較八八風災後的「養水種電」到近2倍，單一片就可發電達400w，以目前併網約300MW太陽光電裝置容量，使用農地比例約250公頃左右，未來達到目標的在單位發電量更大下，所需面積的比例一定更小。至少會有3000公頃以上的農地可供農作使用。另外，對於無力管理田間工作，又有土地鹽化等不利因素無法耕作的年邁老農，則可以有穩定收入過退休生活。
+至於農保問題，環保局重申，農地若有意願出租供人種電，一定要進行變更地目，但這是完全基於地主的利用土地意願及權益，縣府環保局從未要求廠商提供所謂「不利耕作同意書」或其他網路媒體謠傳不平等條約相關文件，先前更製作地主注意事項手冊及Q&amp;A圖卡，公告於縣府綠辦官網，讓地主了解相關權利與義務，只要民眾對合約有疑問，均可撥打專線電話詢問綠能專案推動辦公室。針對部分地區爭議案件，在未取得居民同意之前，縣府已要求業者停止施工。
+蛇鼠患問題，縣府環保局長顏幸苑則認為，作物收成期間食物充沛易引鼠、鳥禽覓食，但太陽能案場內並無食源，應非屬引鼠主因，縣府要求專案輔導業者維護周遭環境整潔；至於選址不當，縣府重申，屏東縣綠能推動政策以「專案專區計畫」、「土地複合式利用」兩大策略為主，專案為有限度使用相對不適合耕種的土地發展綠能，專案專區外鄉鎮優先鼓勵結合既有設施與光電的「複合利用」方式。
+屏東縣環保局表示，民眾對於光電發展與環境保護議題逐漸重視，縣府尊重私有地主有處置自家土地財產，以及業者依法申請案件的權利，惟審查過程將審慎關注山坡地、耕作農地、歷史遺跡、生態保育或重要觀光景點聯絡道路沿線等議題，並要求廠商提出因應作為，以避免衍生爭議性問題，兼顧開發合理性及維護本縣農民耕作權益。</t>
+  </si>
+  <si>
+    <t>陽光行動／屏東瘋種電…家園變貌 老農離農、青農迫遷</t>
+  </si>
+  <si>
+    <t>從國道三號林邊交流道下來，光電場廣告映入眼簾；從大馬路旁到鄉間農田，光電板無所不在。這是屏東沿海地區這幾年興起的違和景致，也是全台種電縮影。在地青農批政府、業者聯手種電種到失心瘋，從農地、山區到有文資價值的二戰遺跡都不放過，不僅家園變貌，也迫使老農離農、變相迫遷青農。
+屏東農地種光電原是全台濫觴和典範，二○○九年八月莫拉克風災挾帶破紀錄雨量，造成中南部嚴重水災，也重創屏東南部沿海鄉鎮，不少魚塭、果園被沖毀。時任屏東縣長曹啟鴻提出「養水種電」計畫，縣府媒合魚塭、農地租給光電業者，地主負責管理，地主按月收地租及管理費，綠電賣給台電，能涵養地下水、減緩下陷，一舉數得。
+屏東種電 侵蝕農地 製表／都會地方中心
+農業部前身農委會二○一三年修法，允許不適耕作農地種電，大開種電之門，但農地非農用的罵聲不斷。二○一八年十月起，屏縣府公告實施「嚴重地層下陷地區土地活化暨太陽光電發電業整體規劃發展計畫」，開放下陷區農地可變更種電。
+二○二○年七月，農委會加嚴農地變更種電門檻，二到卅公頃農地變更要由中央審查，兩公頃以下原則不同意變更種電。但早在二○一八年屏東縣長潘孟安任內，報請行政院同意把東港、林邊、佳冬、枋寮四鄉鎮，畫為嚴重地層下陷區作光電專區，成為特例。
+四年多來，屏東種電發展快速，原本立意良善的光電，如今變成農民的陰霾。枋寮女青農張靜玉說，為衝高綠電占比，種電已種到失心瘋，不該種電的地方都被光電板占領，很多農民被業者遊說簽「不利耕作聲明書」，離農坐收光電場租金，但這些農地都種著蓮霧、水稻、芭樂，何來不利耕作？
+「沿海四鄉鎮美麗的鄉間景致丕變，綠地逐漸蒸發。」屏東縣環境保護聯盟理事長洪輝祥說，綠地、果園被一塊塊光電板取代，像貼狗皮膏藥般醜陋，不但壓縮農業空間，光電板遮陽廿年，農地將失去地力，衝擊農產業服務鏈，受益的是少數地主，受影響的是多數農民，整體農業將衰退，屆時想回頭搶救就難了。
+屏東縣府綠能辦公室表示，沿海四鄉鎮持續下陷，列第一、二級地下水管制區，縣府把四鄉鎮部分農地轉作光電場，搭配上游補注地下水，減緩地層下陷，創造地主、業者、政府、全民與綠能「五贏」，前年已達成綠電供應全縣民生用電的階段性目標。</t>
+  </si>
+  <si>
+    <t>['地層下陷', '潘孟安', '種電', '蓮霧', '農地', '農委會', '農業部', '農民', '青農']</t>
+  </si>
+  <si>
+    <t>陽光行動／光電來了 老農嘆「不但要吃土，連農保都沒有了」</t>
+  </si>
+  <si>
+    <t>屏東是光電場熱區之一，正上演光電板與農民搶地爭奪戰。光電業者挨家挨戶以誘人租金勸說地主租地種電，租地種蓮霧的果農只能忍痛看著心血被毀，也斬斷兒子想當青農接班的願望。青農自嘲說，政府寧可把地租給業者種電，也不給老農一畝田維生，青年若當「漂鳥」回農村，肯定變走投無路的「落翅仔」。
+五十六歲鄭明偉在林邊、佳冬鄉租下三座蓮霧園，他說，有兩座花了十多年整理，收成正漸入佳境，地主竟收回種電，他只能忍痛放棄；由於種蓮霧要手把手長期培養技術，正在念農校的兒子雖有心接手，但他勸兒子算了，最好另謀出路。
+農民控國產署 為賺更多租金
+屏東沿海有不少國有財產署名下的新生地，被農民用於種田。六十三歲楊寶秀在枋寮內寮段種芭樂，她無奈說，種芭樂近四十年，也繳用地補償金給國產署，一直相安無事，近年數度送件申請合法承租都被拒絕，後來光電業者在芭樂園貼告示已承租種電，要農民及早搬離；國產署則回覆因地層下陷不利耕作，要轉作光電場。
+六十多歲呂姓老農也靠這片三分地的蓮霧園維生，他說，國產署明知老農靠種蓮霧養家，寧可租給光電業者賺更多，如果沒地可種，「我不但要吃土，連農保都沒有了。」
+面對農民控訴，國產署南區分署屏東辦公室指出，光電業者依法種電，並願意取得承租人或使用人同意書後清理地上物。占用者繳使用補償金，但他們本就沒合法使用權。
+林邊、佳冬和枋寮有「蓮霧之鄉」美名，四十八歲陳呈祥在八八風災後回鄉接手父親的蓮霧園，他感嘆，近年光電大舉入侵，正侵蝕果農維繫傳統產業所做的努力。
+他說，蓮霧老農因子女無意接手，只好租地給光電商，有的果園地主刻意抬高租金逼退承租農，一塊塊果園被光電場取代、包圍，整體產量正持續下降，衝擊採收、包裝、運銷等產業鏈，未來工人更難找、材料更貴，務農條件就更差。
+農地租金上漲 加速產業衰退
+陳呈祥說，蓮霧產業衰退和人口老化、缺工等有關，雖不能全歸責光電，但確實造成農地租金上漲問題，間接加速產業衰退；政府對這些衝突視若無睹，苦果只由農民吞。
+枋寮農會總幹事鄭晏昕、林邊農會總幹事黃金順都慨嘆，原盼農電能共生，如今衝突嚴重，在地驕傲半世紀的蓮霧產業，正因光電面臨式微危機。
+黃金順說，光電場租金一分地四萬元，承租農民頂多出得起一萬元，相差四倍，到處都聽到地主要改種電，年輕人想返鄉務農，也無低租金的農地可種，「蓮霧故鄉」金字招牌正在褪色。
+台大農經碩士張靜玉是枋寮蓮霧農，眼看鄰近農民被光電搶地，她忿忿不平，直指當年農委會主委蘇嘉全還推漂鳥計畫，要青年返鄉務農，現在連地都租不到，「這不是迫遷青農去都市討生活嗎？漂鳥回農村，恐怕走投無路變落翅仔吧！」</t>
+  </si>
+  <si>
+    <t>['國產署', '地層下陷', '種電', '蓮霧', '補償金', '農地', '農會', '農民', '電商']</t>
+  </si>
+  <si>
+    <t>冷眼集／若綠電來自迫遷 違「養水種電」初衷</t>
+  </si>
+  <si>
+    <t>光電亂象已久，從之前的良田種電、砍樹種電，近來變本加厲；光電板不僅征服山頭、占領有文資價值的遺跡，更一步步裂解農漁村的產業鏈，恐阻斷青農返鄉之路。地面型光電的社會衝擊比預期更大且深，在講求氣候正義和「企業ＥＳＧ（環境保護、社會責任、公司治理）」的國際主流下，政府和企業須警覺，若綠電來自迫遷、危害生態與在地產業，恐埋隱憂。
+屏東縣沿海四鄉鎮被縣府以嚴重地層下陷區之名畫為光電專區，本可接軌屏東縣前縣長曹啟鴻的「養水種電」政策，但實際推行結果，鄉間景觀破碎、光電場蛇鼠為患、離農者漸增等負面效應逐漸浮現，加上光電助漲農地租金，無異將返鄉青年拒於農漁村之外，也被批評與「養水種電」初衷漸行漸遠。
+屏東只是全台種電爭議的縮影，有更多生態、景觀敏感地，在追趕綠能目標下可割可棄。面對爭議與衝擊，政策把關工具遲未發揮效能，及早阻止種電的副作用，甚至正向引導與在地共生共榮，實難辭其咎，也與執政黨的「愛鄉土」理念背道而馳。
+開發行為必須堅守環境正義底線，綠能也不例外。猶記得台積電在被徵收用地的拆遷戶激烈抗爭下，突然宣布放棄進駐龍科三期，不無環境正義與企業ＥＳＧ的考慮。民進黨種電國策若如「失速列車」，無情地衝撞純樸的農漁村，把青農、老農都當成「農村最軟的一塊」，這種綠電還是國際認可、符合ＥＳＧ的綠電嗎？</t>
+  </si>
+  <si>
+    <t>['地層下陷', '屏東縣', '曹啟鴻', '種電', '農地', '青農']</t>
+  </si>
+  <si>
+    <t>2024/01/09</t>
+  </si>
+  <si>
+    <t>北市松山工地驚傳地層下陷！　周圍車格「側翻照」曝光</t>
+  </si>
+  <si>
+    <t>台北市今（23日）又工地地層下陷！松山區慶城街與興安街交叉路口晚間9時01分許，驚傳新建工地地基塌陷，路旁整排停放的汽車因故側翻超過45度，現場已劃設警戒線，據了解台北市長蔣萬安正趕往現場。今晚9時01分許，慶城街和興安街交叉路口一處，所屬璞真建設的新建工地「地基下陷」，下陷範圍評估中，目前無人受傷，目前影響路旁4台停放的車輛，現場已劃設警戒線。事發後，已有消防車到場指揮，詳細發生原因仍待釐清。蔣萬安則透過臉書表示正趕往現場，呼籲周遭居民和經過的民眾注意安全，有最新資訊市府會即刻通知。</t>
+  </si>
+  <si>
+    <t>['地層下陷', '台北市', '蔣萬安', '台北市長', '工安意外', '工地']</t>
+  </si>
+  <si>
+    <t>2024/02/23</t>
+  </si>
+  <si>
+    <t>慶城街工地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市慶城街工地爆地層下陷！ 路邊車輛「傾斜」</t>
+  </si>
+  <si>
+    <t>台北市松山區慶城街一處工地附近，今（23）晚傳出有地層下陷的狀況，停在路邊停車格的車輛，車身甚至已經傾斜，影響4台車輛傾斜。現場為新建工地地基下陷，下陷範圍評估中，無人受傷，已劃設警戒線。台北市長蔣萬安和副市長李四川正趕往現場。台北市長蔣萬安發文表示，「稍早在慶城街和興安街交叉口發生工地地基下陷，我正趕往現場。請周遭居民和經過的民眾注意安全，有最新資訊，市府會即刻通知！」</t>
+  </si>
+  <si>
+    <t>['慶城街', '地層下陷', '興安街']</t>
+  </si>
+  <si>
+    <t>慶城街工地「導溝施作不佳」害路塌 蔣萬安：將進行緊急回填</t>
+  </si>
+  <si>
+    <t>台北市慶城街與興安街交叉口今（23）晚發生工地地基下陷，台北市長蔣萬安發出通知，提醒周遭居民和經過的民眾注意安全，蔣萬安及台北市副市長李四川目前也趕到事故現場，了解事發原因。蔣萬安受訪時指出，今晚9點左右接獲通報，慶城街與興安街交叉口一處新建工地發生下陷，第一時間即通知相關單位，現場也拉起警戒線，無人傷亡，不過造成四輛停放車輛傾斜。蔣萬安指出，目前新建工地還沒進行基礎開挖，即將準備施作的連續壁工程也還沒開始，只是在做導溝，初步了解是因為內部支撐力不夠，造成導溝外壁下陷，目前緊急回填導溝中。台北市結構技師公會理事長徐茂卿表示，「因為工地局部導溝施作不佳，造成道路坍陷，現在最重要的是，把導溝內的坑洞補起來，由於區域不大，災害擴大跡象不至於產生很大的影響。」</t>
+  </si>
+  <si>
+    <t>北市慶城街工地突地基塌陷 柯文哲：這是本來就有的問題</t>
+  </si>
+  <si>
+    <t>〔記者陳奕劭／台北報導〕台北市松山區慶城街和興安街交叉路口的一處工地，昨晚（23日）發生地基塌陷，工地旁有4輛停在路邊停車格的轎車，車身隨著地基塌陷呈70度傾斜，幸好無人傷亡。對此，台北市前市長柯文哲今早（24日）受訪表示，台北市是地層下陷警示區，這是本來就有的問題。
+台北市松山區慶城街和興安街交叉路口的一處工地昨晚發生地基塌陷，而柯文哲卸任後也發生好幾起地層下陷事件。柯文哲今早在關渡宮前受訪表示，台北市本來就是地層下陷警示區，其實去工務局網站看就知道，地層下陷警示區有好幾個，台北是盆地，這是本來就有的問題。
+媒體詢問，地層下陷是建商問題或是地質需進一步檢查？柯文哲回應，他們做的地圖已經相當完整，高危險區要能夠事先知道。</t>
+  </si>
+  <si>
+    <t>2024/02/24</t>
+  </si>
+  <si>
+    <t>許淑華爆年前接獲通報異常？蔣萬安再視察慶城街塌陷：會全面清查</t>
+  </si>
+  <si>
+    <t>台北市松山區慶城街一處新建工地昨（23）天晚間發生地基塌陷意外，停在路旁的4台車受到波及，人行道路面也凹陷，北市府也緊急成立指揮中心處理，台北市長蔣萬安今早二度到現場視察現況，被問及北市議員許淑華爆出年前就接獲異常通報，市府有無因應，對此他表示會請建管處全面清查。台北慶城街塌陷案，截至上午11點，已回填360立方公尺，回填高度已近安全目標值3公尺，約12點左右就會完成作業，而比對相關數據和檢測，目前僅有塌陷處東側有超過15公分裂痕，西南北側比對監測數值正常，也都沒有地面塌陷、鄰房傾斜狀況，管線、路樹等也一併檢查處理。此次台北市政府昨晚在慶城街工地塌陷事發後，緊急成立指揮中心，也開罰18萬並勒令停業，要求工作灌漿回填、確保安全，這也是蔣萬安任內二度有建案塌陷發生，此次處理速度較上次更快，蔣萬安強調，每一次事件發生都會做一次檢視，只要機制完善，每個人員落實運作，其實反應就會快速確實，確保各項安全、讓一切恢復正常。不過外界也質疑，相比日前雙北惡臭案，市府被質疑動作慢半拍，蔣萬安回應，往後相關機制調整完善，確保人員透過機制系統運作，其實各項反應就能即刻因應，後續處理就會到位。至於許淑華透露年前就有接獲異常通報，且未來可以跟外審單位、大地、工程、結構技師等一起監工，對此蔣萬安表示，異常通報「會請建管處全面清查」，另外此次第一時間也有邀請四大工會，技師、結構、大地、建築師工會參與，也謝謝里長到現場協助各項監測，這部份第一時間都有溝通聯繫。</t>
+  </si>
+  <si>
+    <t>['蔣萬安', '慶城街', '工地']</t>
+  </si>
+  <si>
+    <t>勒令停工！北市慶城街地層下陷「開罰18萬」 連夜灌漿估午前完工</t>
+  </si>
+  <si>
+    <t>台北市慶城街、興安街交叉口昨（23）天晚間突發生工地地基塌陷問題，連帶週邊停在路旁的汽車、人行道也傾斜下陷，北市府緊急下令回填，經過連夜灌漿，截至今（24）早7點左右，已經灌漿250方，初估中午12點可完成，另外也針對業者開罰18萬並勒令停工。據了解，新建工地尚未開挖，只是在做導溝，疑似因內部支撐力不夠，造成導溝外壁下陷，所幸無人傷亡，而除了導溝回填外，北市府表示外側坍塌處，為預防樹木傾倒，且灌漿回填後樹木無法存活，故將4棵黑板樹鋸斷。此外，北市府開罰業者18萬，並勒令停工，而雖然目前沒有漏水情況，但接下來自來水處將持續監測，早上也會進場做透地雷達檢測，並確認管線及排水溝是否破壞及處理方式，待基地內側灌漿完成及初凝後，即進行道路回填，北市府透露，今早沒有再塌陷情況，監測資料今天比對完成後公布。</t>
+  </si>
+  <si>
+    <t>['慶城街', '地層下陷', '灌漿']</t>
+  </si>
+  <si>
+    <t>慶城街塌陷深1.5公尺「4車遭殃」 今早回填現況曝光！</t>
+  </si>
+  <si>
+    <t>台北市松山區慶城街、興安街一處新建工地，昨（23）天晚間發生地基塌陷意外，造成停在路旁的四台車受到波及，人行道路面也呈現V字型凹陷，面積約4公尺長、30公尺寬、深度約1.5公尺，所幸週邊建築物沒有危險，相關單位連夜在現場進行回填作業，不過工地遭罰18萬勒令停工，事發原因尚待調查。慶城街新建工地地基下陷、路面坍塌，人行道、工程圍籬都明顯下陷，路旁停車格也消失一大半，當時路邊4輛汽車也遭殃歪斜，建商連夜回填灌漿，避免塌陷擴大。據了解，該處興建工地原是要蓋豪宅大樓，原先工地上有地下三層地下室的建物，疑似拆除建物後，地下室在進行導溝作業的時候，內部導溝支撐力不足才發生坍塌意外，所幸工地尚未進行大規模的開挖，沒再釀更大事故。此次路面坍塌面積長約4公尺、寬約30公尺、深度1.5公尺，目前週邊建築物沒有相關安危，而北市建管處勘查後，昨天深夜確定裁罰18萬，並勒令回填穩定後停工，待確保工地安全，業者、建商提出復工審查，才會進行後續作業，至於事發原因仍待調查。</t>
+  </si>
+  <si>
+    <t>['慶城街', '地層下陷', '塌陷']</t>
+  </si>
+  <si>
+    <t>北市慶城街工地突地基塌陷 柯文哲：盆地本來就有的問題</t>
+  </si>
+  <si>
+    <t>台北松山區慶城街昨（23）天晚間發生地層下陷，身為前台北市長、民眾黨主席柯文哲今早挑戰一日北高，被問到卸任後北市兩度發生工地地層下陷，他表示台北市是盆地，本來就是地層下陷檢視區，認為高危險區要能夠事先知道，並做必要措施。柯文哲今天一大早6點多，從台北關渡宮出發挑戰一日北高，面對慶城街昨晚發生地層下陷，他認為台北市本來就是地層下陷檢視區，工務局網站上可以看到有好幾個區域，且北市本來就是盆地，所以本來就有這個問題。至於問題出在誰身上，柯文哲認為，本來地質就應該多注意，北市做的地路已經相當完整，高危險區要能夠事先知道，做必要措施防範。</t>
+  </si>
+  <si>
+    <t>['柯文哲', '一日北高', '地層下陷']</t>
+  </si>
+  <si>
+    <t>北市慶城街路坍險吞4車！ 工地崩塌範圍完成回填</t>
+  </si>
+  <si>
+    <t>台北市松山區慶城街一處新建工地旁，昨天晚間發生路面塌陷意外，經過將近20小時的搶救，工地內崩塌範圍已完成回填，今天下午也開始灌漿工地外圍的塌陷路面。初步研判，疑似是新建工程拆除建地既有的地下建築結構時，挖到不連續的弱面，才導致導溝崩塌。台北市松山區慶城街新建工地23日晚間發生地層坍陷意外，經過約18小時的緊急搶救，工地外圍崩塌範圍終於展開回填作業。從制高點俯瞰更清楚，混泥土車來回進出灌漿沒停過，因為這一崩，不僅人行道嚴重下陷，路邊車格也消失一大半，當時還有4輛汽車差點被吞噬。附近住戶直言，「好意外，真的很意外！文華飯店當初蓋的時候這麼近，也沒有發生過問題。」精華地段的豪宅新建案出現大坍塌，讓附近居民全都嚇壞，畢竟這長約4公尺、寬約30公尺，深度達到1.5公尺的坍陷範圍實在不小，而且建案甚至才正準備施作連續壁，基礎地基都還沒大規模開挖，竟然就在前置的導溝作業發生意外。初步研判，坍塌原因跟建地原先存在的地下室結構脫不了關係，原來這回要建立深導溝，越過既有結構時，卻不慎碰到既存的不連續面，才會釀禍。台北市土木技師公會理事長莊均緯指出，「破除既有的連續壁跟外牆，那個地方有個不連續面，原有的地下室這個部分，外牆它推擠進來變位，就把原來深導溝的側壁壓變形之後，就產生這樣的崩塌現象。」台北市長蔣萬安週六上午也二度到現場勘查，向居民保證，周邊住宅暫無安全疑慮，「在西側、南側、北側目前比對的監測數值是正常，而且也都沒有地面塌陷以及鄰房傾斜的狀況。」建管處則緊急開罰18萬，並勒令停工，後續就待道路回填，並由透地雷達確認周邊無安全疑慮，就可恢復通車，還給居民安全環境。</t>
+  </si>
+  <si>
+    <t>['工地崩塌', '慶城街', '地層下陷']</t>
+  </si>
+  <si>
+    <t>北市工地地層下陷頻傳 柯文哲：高危險區應做必要措施</t>
+  </si>
+  <si>
+    <t>台北市慶城街一處新建工地昨晚發生地層下陷事故，對於台北市接連發生地層下陷事件，前台北市長、民眾黨主席柯文哲今天表示，台北市本來就是地層下陷潛勢區，台北市政府已經把地圖做得很完整，要先知道高危險區，並做必要的措施。
+柯文哲表示，台北市本來就是地層下陷潛勢區，其實只要去工務局往上查一下，就可以看到地層下陷潛勢區有好幾個，因為這個地方本來就是盆地，所以就會有這個問題，目前台北市做的地圖已經相當完整，高危險區要事先知道，做出必要的措施。</t>
+  </si>
+  <si>
+    <t>['北市', '地層下陷', '柯文哲']</t>
+  </si>
+  <si>
+    <t>慶城街工地回填完成　10點已恢復雙向通車</t>
+  </si>
+  <si>
+    <t>台北市慶城街工地附近，週五晚間坍塌下陷，昨天基地內回填完成後，今（25）天上午台北市副市長李四川再度到場視察，評估地基沒有再下陷，宣布慶城街上午十點恢復通車。李四川表示，填平的地方沒有繼續沉陷，路面部分希望今晚人少的時候，重新把瀝青鋪好，明天週一上班就能恢復正常了。由於這已經是蔣市府上任以來，兩年內發生的第7起塌陷事件，李四川也要求持續監測，建商若想復工，依法必須交出復工計畫，經過政府和專業技師公會審查，確認安全無虞後才能繼續動工。</t>
+  </si>
+  <si>
+    <t>['慶城街', '塌陷', '通車']</t>
+  </si>
+  <si>
+    <t>2024/02/25</t>
+  </si>
+  <si>
+    <t>公營烏日溫水游泳池 水位竟傾斜14公分疑地層下陷</t>
+  </si>
+  <si>
+    <t>〔記者黃旭磊／台中報導〕台中市烏日溫水游泳池蓋在烏日焚化廠旁，由於地下水井積沙淤泥嚴重，去年起停止對外開放，地方民眾認為未於本月如期開館營運，通報台中市議員曾威，查出泳池前後地層落差約14公分，疑有地層下陷疑慮；環保局強調，立即通報土木技師會勘釐清下陷疑慮。
+「泳道南側比北側低了約14公分，」台中市環保局技士本週前往烏日溫水游泳池測量，查出50公尺泳道平面傾斜約14公分，南側地勢明顯較低，疑似地層下陷緊急通報台中市土木技師公會複驗。
+曾威說，泳池蓋在慶光路焚化爐旁，運用焚化爐回饋金設置，當初建造是因空污影響社區回饋鄉親，營運十年來陸續發生池底積沙、頂棚消防設備被消防局要求改善等問題，且沒水狀況下，泳池兩端落差14公分，疑似後方有地層下陷相當危險。
+烏日溫水游泳池於2016年起營運，設有10道50公尺泳道、兒童池、spa池、烤箱及蒸氣室，今年起由台中市體育局移交給環保局列管。
+會勘團隊查出，泳池北側地勢最高處，水面距泳池頂約20公分，南側地勢最低處僅約6公分，結構明顯出問題，土木技師初勘認定複雜程度估價，再進行後續評估結構補強作業。
+環保局副局長陳政良說，預計下週14日請消防局研擬消防設施修繕細節，至於地層下陷疑慮也將在15日請廠商鑑定評估，盡全力讓泳池盡快恢復營運。</t>
+  </si>
+  <si>
+    <t>2024/03/07</t>
+  </si>
+  <si>
+    <t>烏日溫泉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《前後落差約14公分》烏日溫水泳池 泳道傾斜疑下陷</t>
+  </si>
+  <si>
+    <t>〔記者黃旭磊／台中報導〕烏日溫水游泳池蓋在烏日焚化廠旁，由於地下水井積沙淤泥嚴重，去年起停止對外開放，地方民眾認為未於本月如期開館營運，通報市議員曾威查出泳池前後地層落差約十四公分，疑有地層下陷疑慮。環保局強調，立即通報土木技師會勘釐清下陷疑慮。
+「泳道南側比北側低了約十四公分」，環保局技士本週前往烏日溫水游泳池測量，查出五十公尺泳道平面傾斜約十四公分，南側地勢明顯較低，疑似地層下陷，緊急通報台中市土木技師公會複驗。
+曾威說，泳池蓋在慶光路焚化爐旁，運用焚化爐回饋金設置，當初建造是因空污影響社區回饋鄉親，營運十年來陸續發生池底積沙、頂棚消防設備被消防局要求改善等問題，且沒水狀況下，泳池兩端落差十四公分，疑似後方有地層下陷，相當危險。
+烏日溫水游泳池於二○一六年起營運，設有十道五十公尺長泳道、兒童池、spa池、烤箱及蒸氣室，今年起由體育局移交給環保局列管。
+會勘團隊查出，泳池北側地勢最高處，水面距泳池頂約廿公分，南側地勢最低處水面距泳池頂僅約六公分，結構明顯出問題，土木技師初勘認定複雜程度估價，再進行後續評估結構補強作業。
+環保局副局長陳政良說，預計下週十四日請消防局研擬消防設施修繕細節；至於地層下陷疑慮也將於十五日請廠商鑑定評估，讓泳池儘快恢復營運。</t>
+  </si>
+  <si>
+    <t>2024/03/08</t>
+  </si>
+  <si>
+    <t>萬里加投溫泉公共浴室疑地層下陷 封閉修繕中 (圖)</t>
+  </si>
+  <si>
+    <t>新北市萬里區加投溫泉公共浴室疑似有地層下陷的現象，為確保泡湯安全，目前已封閉修繕中。（公所提供）
+中央社記者王鴻國傳真 113年3月26日</t>
+  </si>
+  <si>
+    <t>2024/03/26</t>
+  </si>
+  <si>
+    <t>yahoo</t>
+  </si>
+  <si>
+    <t>萬里加投溫泉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑地層下陷 萬里加投溫泉公共浴室受損 (圖)</t>
+  </si>
+  <si>
+    <t>新北市萬里區加投溫泉公共浴室疑似有地層下陷的現象，造成浴池受損、壁磚脫落，未來將進行修繕改善，確認無危險之虞，才會再行開放供民眾使用。（公所提供）
+中央社記者王鴻國傳真 113年3月26日</t>
+  </si>
+  <si>
+    <t>地層下陷地面傾斜 萬里加投溫泉公共浴室暫封閉｜#鏡新聞</t>
+  </si>
+  <si>
+    <t>新北市萬里的「加投溫泉」公共浴室，算是古蹟了。它是日據時期就蓋好的，而且到現在也有很多人，喜歡來這裡泡湯。不過上個月開始，這裡出現大大小小問題：浴池磁磚掉落、水泥柱有裂痕、地面也嚴重傾斜！因此現在浴池已經暫時封閉了，等到廠商都修繕完畢、確認安全都沒問題，才會再度開放。 （鏡新聞已上架86台，若無法收看，請洽詢當地系統台） 鏡新聞APP iOS👉https://reurl.cc/kqyqML 鏡新聞APP Android👉https://reurl.cc/Ay2y63 有話鏡來講YT👉https://reurl.cc/A4DjQj 少年新聞週記YT👉https://reurl.cc/K4DeN9</t>
+  </si>
+  <si>
+    <t>新北萬里加投溫泉地層下陷 封閉修繕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔記者俞肇福／新北報導〕日治時代建造的新北市萬里區加投溫泉公共浴室，因係屬免費泡湯，不但金山萬里當地民眾喜愛，就連基隆人也搭車專程前來免費泡湯；因日前發現疑似有地層下陷，萬里區公所立即封閉浴室，並邀請專業技師與工程廠商勘查，將於完成改善並確認無危險，才會再行開放。
+新北市議員周雅玲表示，她接獲當地民眾反映，加投溫泉公共浴室屋頂漏水、排水不良、牆有裂縫等事宜，廠商到場會勘後發現，懷疑是地層下陷，為確保民眾泡湯安全，自3月4日起先封閉浴室，經技師以透地雷達探測後，在男女湯室地底下有土壤流失現象，公所再度發起現勘，商討後續改善辦法。
+周雅玲指出，萬里加投溫泉公共浴室在10多年前曾經修繕，當時就曾經有出動透地雷達探測，這次透地雷達探測，與當年比較發現問題較為嚴重；她建議應該邀請土木技師一併會勘，包含溫泉主管機關的經濟發展局、水利局邀請來，對於周邊的溫泉開發應予以總量管制，以免加投溫泉公共浴室慘遭池魚之殃。
+萬里區區長黃雱勉表示，加投溫泉公共浴室經專業技師檢視，發現有下陷致建築物傾斜情形，為瞭解確切原因，找出有效的改善方法，公所將再請新北市土木技師公會等相關專家進行專業的檢查評估，期望在確保安全無虞的前提下，儘早恢復提供民眾泡湯空間。她呼籲，加投溫泉公共浴室封閉期間，民眾切勿擅闖翻越圍籬進入使用，以維護自身安全。</t>
+  </si>
+  <si>
+    <t>萬里加投溫泉地層下陷 地面傾斜急封閉</t>
+  </si>
+  <si>
+    <t>新北市萬里加投溫泉公共浴室歷史悠久，吸引許多人前來泡湯。不過，今年2月，有民眾反應溫泉設備出問題，沒想到廠商進場維修後，發現浴池磁磚掉落、水泥柱充滿裂痕、地面嚴重傾斜等狀況，更仔細勘查下，竟然有地層下陷的現象。地質檢測人員檢查，原來湯室的地底有大量孔隙，造成土壤流失，目前封閉整修。
+鋁罐放在地上一路滾不停，不只地面嚴重傾斜，浴池還有一大片磁磚脫落，水泥柱也充滿裂痕，原來這處溫泉發生地層下陷。
+新北市萬里加投溫泉公共浴室在日治時代興建，歷史相當悠久，水質相當不錯，吸引許多人前來泡湯。
+不過今年2月開始，就有泡湯遊客反應，燈管、溫度顯示器和溫泉管線設備有問題，區公所派人前往了解狀況，由廠商進場維修，發現不只是設備故障，還有磁磚脫落、地磚不平等狀況，仔細勘查下發現地層下陷的現象，公所從4號開始封閉浴室，也趕緊找專業技師到場檢查，男女湯室內的地底有大量孔隙，造成土壤流失，懷疑可能跟一旁的溫泉露頭有關係。
+大鵬里長李建才：「露頭我不敢說絕對沒有關係，因為這個是相通的東西，在地底下也看不到，以目前整個狀況來講的話，下陷的狀況速度應該不是很急速，這是很多年類似有點掏空的感覺。」
+溫泉從溫泉露頭自然湧出，抽到蓄水池後，在流入浴池內，可能連帶影響地基被掏空。
+萬里區長黃雱勉：「技師建議我們要有專業的技師公會，針對結構物下陷狀況去做監測，再去評估後續是不是可以用液壓灌漿的部分做改善，還是可能要大動作去做後續的改建，這個部分後續可能會需要比較多的費用。」
+公所強調儘快修建完成，提供民眾安全舒適的泡湯空間。</t>
+  </si>
+  <si>
+    <t>萬里加投溫泉公共浴室出現裂縫 疑地層下陷 (圖)</t>
+  </si>
+  <si>
+    <t>新北市萬里區公所表示，有民眾日前反應加投溫泉公共浴室內的燈管、溫度顯示器不亮等問題，委託廠商勘查後發現，疑似有地層下陷的現象。圖為建物出現裂縫。（公所提供）
+中央社記者王鴻國傳真 113年3月26日</t>
+  </si>
+  <si>
+    <t>萬里加投溫泉公共浴室疑地層下陷 公所封閉修繕</t>
+  </si>
+  <si>
+    <t>萬里區公所以訊息說明，萬里區加投溫泉公共浴室於日據時代建造，歷史悠久，屬於海底溫泉，為當地居民從小到大泡湯空間。
+區公所表示，因2月底有民眾反應浴室內的燈管、溫度顯示器不亮等問題，於是委託廠商勘查後發現，疑似有地層下陷的現象，為確保泡湯安全，已封閉浴室。
+區長黃雱勉表示，為瞭解確切原因，找出有效的改善方法，將邀請專業技師進行檢查評估，以商討後續改善辦法，期望在安全的前提下，儘早恢復提供民眾泡湯空間。提醒民眾封閉期間勿擅自進入使用，以維護自身安全。
+萬里區公所主任秘書許明富向中央社記者表示，當地過去地層下陷、並完成改善多年，未影響溫泉的供給及溫度，加投溫泉公共浴室經找技師以透地雷達探測後，在男女湯室地下發現有土壤流失現象，未來將進行修繕改善，並確認無危險之虞，才會再行開放供民眾使用。（編輯：林恕暉）1130326</t>
+  </si>
+  <si>
+    <t>疑地層下陷 萬里加投公共浴室封閉檢測</t>
+  </si>
+  <si>
+    <t>新北萬里的加頭溫泉2月份被遊客發現，不僅燈管、溫度顯示氣等等設備有問題，更有地層下陷，因此趕緊請公所找人檢修，目前已經緊急封閉，確認沒有安全疑慮，才會再度開放。
+浴池內整塊磁磚脫落，地磚也不平，甚至還有些地層下陷，看起來相當老舊，這裡是新北萬里的加頭溫泉，從日據時代起，就受到不少民眾喜愛，許多人泡完湯，都覺得放鬆筋骨。
+不過2月份卻被發現，不僅燈管，溫度顯示器，和一些溫泉管線設備有問題外，還有地層下陷的跡象，鐵鋁罐放在地上，都會不自主的，滾向一邊，加上後方就是溫泉露頭，要是坍方相當危險，萬里區長黃雱勉：「技師建議我們，要有專業的技師公會去，針對結構物下陷狀況，去做監測，評估後續是不是可以用，液壓灌漿的部分做改善。」
+地質人員透過地雷達偵測結果發現，確實男女湯內地底，有大量孔隙，造成土壤流失，目前公所已經，緊急封閉浴室，以民眾安全為第一考量，盡快修建。
+（封面圖／東森新聞）</t>
+  </si>
+  <si>
+    <t>萬里加投溫泉公共浴室 疑地層下陷封閉</t>
+  </si>
+  <si>
+    <t>〔記者俞肇福／新北報導〕日治時代建造的新北市萬里區加投溫泉公共浴室，提供大眾免費泡湯，不僅受到當地民眾喜愛，就連基隆人也慕名前來；日前發現疑似地層下陷，萬里區公所立即封閉浴室，並邀請專業技師與工程廠商勘查，將於完成改善並確認沒有危險，才會重新開放。
+新北市議員周雅玲表示，她接獲當地民眾反映，加投溫泉公共浴室屋頂漏水、排水不良、牆面出現裂縫，廠商會勘後懷疑是地層下陷，為確保民眾安全，三月四日起先封閉浴室，經技師以透地雷達探測，在男女湯室的地底下發現土壤流失現象。
+周雅玲指出，萬里加投溫泉公共浴室十多年前曾經修繕，當時也出動透地雷達探測，這次發現問題較嚴重，她建議邀請土木技師參與會勘，經濟發展局和水利局應針對附近的溫泉業者開發予以總量管制，以利公共浴室永續發展。
+萬里區長黃雱勉表示，加投溫泉公共浴室經專業技師檢視，發現有下陷致建築物傾斜情形，公所將再請土木技師公會等專家進行檢查評估，期望在確保安全前提下，儘早恢復民眾泡湯空間。</t>
+  </si>
+  <si>
+    <t>2024/03/27</t>
+  </si>
+  <si>
+    <t>0403花蓮大地震／天王星大樓嚴重傾斜 學者解釋房屋傾斜3原因</t>
+  </si>
+  <si>
+    <t>花蓮近海今天上午發生規模7.2強震，花蓮市區有大樓嚴重傾斜。學者解釋，地震造成房屋傾斜的原因，包含地震本身震動的方向、建築物結構及是否與土壤液化有關。
+根據中央氣象署資訊，今天上午7時58分發生芮氏規模7.2地震，地震深度15.5公里，震央位於花蓮縣政府南南東方25.0公里（位於台灣東部海域），最大震度花蓮縣6強。各地陸續傳出災情，如花蓮市區2大樓嚴重傾斜等。
+中央研究院地球科學研究所副研究員黃信樺告訴中央社記者，在地震發生的當下，可能有些民眾會發現某些牆面東西容易倒，某些不會，就代表該起地震震動的方向，然而這部分與地震震源、斷層位置、傳遞的能量大小等相關，並不好預測。
+另外，黃信樺指出，建築結構工程問題，比方許多大樓在1樓可能規畫為騎樓，甚至有些做成挑高大廳，在結構上僅靠少數樑柱支撐，因此有可能會在大地震發生時造成不穩的況。
+黃信樺說，第3點就是可能有土壤液化的問題。有些建築物若座落在比較鬆軟的沉積層上，如河邊在長久沖積下，有部分地底縫隙會被沙石填滿，但在地震後卻又鬆動、或是局部液化的情況，造成地層下陷。
+黃信樺提到，雖然台北市可能也有很多老式騎樓，但一來是震央位置離台北較遠，二來是老式騎樓通常較矮，不容易與地震發生共振；反之，若是高樓層、又有騎樓式設計的房屋，在大地震來臨時就會相對危險。
+黃信樺表示，其實現在已經有許多耐震的建築技術，或許政府部門在未來考量建築補強上可以採用，增加老建築的安全性。
+▶▶▶花蓮大地震延伸閱讀
+ ▪一夜83震！氣象署曝餘震暴增原因 「只是剛開始」 ▪花蓮強震整理包／釀18死 重大災情、災後理賠、專家示警一次看 ▪花蓮餘震突變多又變大 專家坦言：有點不尋常 ▪大地震要來了嗎？地科教授分析餘震分布：有花蓮特性</t>
+  </si>
+  <si>
+    <t>['0403花蓮大地震', '土壤液化', '地層下陷', '建築', '花蓮強震']</t>
+  </si>
+  <si>
+    <t>2024/04/03</t>
+  </si>
+  <si>
+    <t>花蓮地震</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【花蓮強震撼全台】驚！新店安泰路地基下陷　北市2工人燒燙傷、1人撕裂傷</t>
+  </si>
+  <si>
+    <t>今（3）日強震震撼全台，各地災情不斷，新北市新店區安泰路一處民宅更發生地基下陷慘況，此外台北市方面先前則傳出3傷，有2名工人因乙炔鋼瓶傾倒爆破導致燒燙傷，還有一人手臂撕裂傷。綜合媒體報導，新北市新店區安泰路60巷90弄頂好社區的民宅今在地震後傳出災情，從現場照片來看，不僅民房地基下陷、花盆傾倒，原先停在路邊的車輛更是直接下沉，場面驚悚。目前粗估坍塌面積約1,000平方公尺，所幸住戶12人已全數撤離。另外，稍早台北市長蔣萬安也表示，北市接獲3人受傷消息，其中有2名男性工人在地震期間因乙炔鋼瓶傾倒爆破導致身上68％燒燙傷，目前已被送往台大醫院治療。還有一名大同區的民眾在地震時因玻璃破裂導致左手撕裂傷，已送往馬偕醫院治療。北市教育局則透露有2名學生疏散時腳踝扭傷與遭玻璃輕微割傷。截至先前，北市共接獲588災情案件，大多為停電、漏水、瓦斯管線破損，此外還有建築物外牆毀損、招牌掉落等，也有受困電梯人員已被救出。後續北市府將落實外牆、招牌懸掛物防護以及高架、橋樑巡檢。</t>
+  </si>
+  <si>
+    <t>['台北市', '蔣萬安', '受傷', '強震', '地震', '安坑', '新店', '地層下陷', '新北市']</t>
+  </si>
+  <si>
+    <t>地下水井申報納管 水利局同步辦理複查</t>
+  </si>
+  <si>
+    <t>〔記者王涵平／新營報導〕南市已受理超過二五○○○件既有未登記水井納管申報案件，但仍有部分民眾未申報，為避免地下水過度使用造成地層下陷，四月起受理申報同時辦理複查作業，針對轄內納管水井辦理複查暨貼標籤作業，透過現場訪談、測量等方式，建立水井基本資料，以利後續地下水管理。
+水利局表示，今年四月起辦理地下水井現地複查作業，規劃以北門區、學甲區、鹽水區、安定區地下水一級管制區分區方式依序進行，並由專人電話通知約定複查時間，若申請人無法親自到場辦理，請備妥申請人及代理人身分證明文件並至現場填妥委託書，現場除了確認基本資料及調查水井狀況（坐標、地段號、井深、井徑、出水管徑、抽水機位置、型式及馬力、電表電號及用水標的與範圍），農用水井另進行水電比檢測，透過用電量測定抽水量。
+申報時間即日起至八月二日止，可就近就近至各區公所或至市府民治行政中心服務台、永華行政中心服務台或安平水資源回收中心收件窗口填寫申報書後投至專用信箱；或透過水利局網站「水井納管申報」Web平台申報；也可以手機下載「水井納管申報及查詢」APP申報。</t>
+  </si>
+  <si>
+    <t>2024/04/04</t>
+  </si>
+  <si>
+    <t>南市水井納管申報</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南市水井納管申報及複查作業同時啟動 合理使用水資源防治地層下陷</t>
+  </si>
+  <si>
+    <t>▲南市水井納管申報及複查作業同時啟動，針對轄內納管水井辦理複查暨貼標籤作業，合理使用水資源防治地層下陷。（記者李嘉祥攝）
+為保育地下水資源及加強地下水管理，避免地下水過度使用造成地層下陷，影響市民人身財產安全，臺南市政府水利局積極推動水井管理政策，自112年起辦理水井納管作業，受理申報於99年8月4日前鑿設且未辦理水權登記既有水井，納管後可避免遭檢舉而封井，且有取得合法水權機會，並自今年4月起將辦理地下水一級管制區水井申報納管複查作業，針對轄內納管水井辦理複查暨貼標籤作業，透過現場訪談、測量等方式，建立水井基本資料，以利後續地下水管理。
+市長黃偉哲表示，水井納管除可保育地下水資源，對於使用水井民眾而言，接受輔導合法取得水權後可獲得合法用水保障；另為減輕農民負擔，經水井納管的農業用水井免收各項水權登記規費；倘未登記水井逾期未申報且經查獲者，將要求限期自行封填水井並可能面臨罰鍰處分，籲請鄉親踴躍申報，讓珍貴地下水資源合理使用，並同時維護自身用水權益。
+水利局長邱忠川說，根據水利局統計，截至去年12月底已受理超過2萬5000件既有未登記水井納管申報案件，但仍有部分民眾未及申報，為保障水井用戶權益及落實地下水保育，市府特別再開放受理申報納管，申報時間於4月1日起至8月2日截止，時間有限，籲請尚未申請地下水井納管鄉親儘速於申報截止日前申請，以維護自身權益，
+邱忠川指出，4月起將展開的地下水井現地複查，將以北門區、學甲區、鹽水區、安定區地下水一級管制區分區方式依序進行，並由專人電話通知約定複查時間，若申請人無法到場，請備妥申請人及代理人身分證明文件並至現場填妥委託書，現場除確認基本資料及調查水井狀況（坐標、地段號、井深、井徑、出水管徑、抽水機位置、型式及馬力、電表電號及用水標的與範圍），農用水井另進行水電比檢測，透過用電量測定抽水量；為節省民眾時間，與請所有人於預定複查日期前先清除水井周圍草叢，以加速複查作業進行。
+邱忠川也呼籲水井所有人可就近至各區公所或至臺南市政府民治行政中心服務台、永華行政中心服務台或安平水資源回收中心收件窗口填寫申報書後投至專用信箱；或透過「臺南市政府水利局」網站「水井納管申報」Web平台申報，也可手機下載「水井納管申報及查詢」APP申報，市府也設置水井納管專線06-6321212，主動輔導解決民眾申報問題。</t>
+  </si>
+  <si>
+    <t>2024/04/07</t>
+  </si>
+  <si>
+    <t>中國正在下沉中 !  45％城市每年下陷超過3公釐</t>
+  </si>
+  <si>
+    <t>中國過度抽取地下水，導致近40%主要城市的土地下陷。（路透）
+陳麗珠／核稿編輯
+〔財經頻道／綜合報導〕中國有近一半的主要城市正遭受「中度至重度」不等程度的沉降，在海平面上升的情況下，恐有數百萬人將面臨洪水風險。《路透》指出，中國都市人口約9億人，當中約有2.7億人生活在每年下陷逾3公釐的地區，相當於都市人口的29%。
+在中國82個城市中，約有45%每年下沉超過3公釐、16%土地平均每年下沉更是超過10公釐，約有6700萬居民生活於此。研究小組指出，由於中國城市人口多，即使是一小部分地層下陷，也可能造成重大威脅。
+據了解，而造成中國土地逐年下沉，最主要是地下水位下降所致。
+路透表示，「土地下陷」對中國每年造成超過75億元人民幣（約新台幣337億元）的損失。研究人員預計，在下個世紀內，中國將有約近四分之一的沿海土地，恐低於海平面，數億人將面臨大洪水風險。
+最嚴重的受災城市是北方的天津，這城市約有1500萬人口。2023年一場「突發地質災害」，導致3000名居民被疏散，調查人員將這場災害歸咎於，水資源枯竭和地熱井的建設。
+一手掌握經濟脈動點我訂閱自由財經Youtube頻道</t>
+  </si>
+  <si>
+    <t>2024/04/19</t>
+  </si>
+  <si>
+    <t>中國</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中國下沉中！研究指4成主要城市土地正下陷 上有2.7億人居住</t>
+  </si>
+  <si>
+    <t>最新一份根據衛星雷達觀測的研究顯示，中國近40%主要城市的土地正發生「中度至重度」的地層下陷，上億居民面臨洪水的風險；加上海平面上升，上海、廣州、天津都面臨災害風險。
+綜合路透社與美國有線電視新聞網（CNN）報導，這篇研究今天（4/19）發表在期刊《科學》（Science）上。由中國華南師範大學教授敖祖銳領軍的研究小組，透過衛星雷達觀測中國82個主要城市在2015至2022年的地層下陷情況，發現40%城市土地每年平均下沉超過3公釐。
+中國都市人口約9億，約有2.7億人口生活在這些每年下陷逾3公釐的地區，相當於都市人口的29%。
+這82個城市中，更有16%土地平均每年下沉超過10公釐，6700萬居民生活於此。研究小組指出，由於中國城市人口多，即使是一小部分地層下陷，也可能造成重大威脅。
+導致中國都市地層下陷的主因是過度抽用地下水，另一大因素是城市土地上的重量不斷增加。在時間推移下，沉積物堆積、以及不斷增加的沉重建物，將土壤越壓越緊實，導致土地下沉。
+研究顯示，由於地層下陷和海平面上升，最終中國將有約四分之一的沿岸地帶將低於海平面，天津、上海、廣州周邊都面臨這樣的風險。
+中國一些地區已經建立保護措施，這份研究並未探討這些措施的效果。報告合著者、北京大學城市與環境學院教授陶勝利說，上海就建造了數公尺高的堤防，「即使地層下陷和海平面上升，這樣龐大的沿海堤防也能在很大程度上降低城市被淹沒的風險」，就他所知，沒有其他國家打造過規模這麼大的堤防。
+陶勝利稱，中國政府也實施嚴格的地下水管制法規，減緩了上海周邊的地層下陷速度。
+全球多個城市都在下陷
+維吉尼亞理工大學博士後研究員奧恩亨（Leonard Ohenhen）最近一份針對美國地層下陷狀況的報告指出，大部分城市都會發生土地下沉，但因為沿海地區有海平面上升的問題，大家比較關心沿海城市，「但大多數城市下沉的速度，和沿海城市其實都差不多、甚至還更快」。
+地層下陷也不僅是中國才有的問題。CNN指出，美國紐約市等數十個沿海城市正在下沉；墨西哥首都墨西哥城，土地每年最多下沉50公分，可能是全球沉最快的；荷蘭已有25%土地低於海平面。
+今年2月另一項研究指出，全球約630萬平方公里的土地有下陷風險，印尼是最嚴重的國家之一，首都雅加達大部分地區現在都已低於海平面。新加坡2022年一項研究提到，全球面臨嚴重地層下陷的44個沿海大城市當中，有30個在亞洲。</t>
+  </si>
+  <si>
+    <t>遭9億人口重壓！研究：中國近半主要城市正在下陷</t>
+  </si>
+  <si>
+    <t>路透社報導，根據今天(19日)發布的一份全國衛星資料研究顯示，中國將近一半的主要城市正遭受「中等到嚴重」程度的地層下陷，數百萬人將面臨洪災風險，尤其海平面正在上升。
+這篇發表於《科學》(Science)期刊的論文作者發現，中國45%的都市土地正以每年超過3公釐的速度下陷，16%的都市土地下陷速度每年超過10公釐，造成的原因不僅是地下水位下降，還有建築環境的龐大重量。
+華南師範大學敖祖銳領導的研究團隊表示，中國的都市人口已經超過9億，因此「即使是一小部分的土地下陷，都會對都市生活構成巨大威脅」。
+土地下陷已導致中國每年損失超過75億人民幣(10.4億美元)，而在下一個世紀，近四分之一的沿海陸地可能將低於海平面，使數億人面臨更大的洪水風險。
+東安格利亞大學(University of East Anglia)丁道爾氣候變遷研究中心(Tyndall Centre for Climate Change Research)的尼科爾斯(Robert Nicholls)表示：「這讓我們真正認識到，對中國來說，這是一個全國性的問題，而不僅僅是一兩個地方的問題。」他說，「這也是世界其他地方正在發生的事情的縮影。」
+人口超過1,500萬的北部城市天津，被確認為受災最嚴重的城市之一。去年一場「突發性地質災害」導致3千名居民撤離，調查人員將原因歸咎於水資源枯竭以及地熱井的興建。
+中國許多老煤礦區也因為過度開採而受到影響，當局經常被迫向搖搖欲墜的礦井注入水泥，以強化土地。
+這個問題並不只限於中國。今年2月發表的另一份研究指出，全球約有630萬平方公里(240 萬平方英里)土地處於風險之中。印尼是受影響最嚴重的國家之一，首都雅加達大部分地區現在已低於海平面。
+尼科爾斯說，易受影響的城市可以從東京汲取教訓。東京曾經下陷約5公尺(16英尺)，後來在1970年代禁止抽取地下水。
+他補充說：「減緩土地下陷問題應該被非常認真看待，但你不可能阻止所有下陷，因此要討論適應力和建造海堤。」
+根據新加坡2022年的一項研究，44個飽受這個問題困擾的主要沿海城市中，有30個位於亞洲。
+羅德島大學(University of Rhode Island)地球物理學專家魏馬特(Matt Wei)表示：「這是一個都市化和人口增長的問題，人口密度愈大，抽的水就愈多，也就造成更多下陷。」</t>
+  </si>
+  <si>
+    <t>中國下沉中！45％城市每年下陷超過3公釐 2.7億人居住於此</t>
+  </si>
+  <si>
+    <t>中國有將近一半的主要城市正面臨「中度至重度」地層下陷威脅，根據最新研究顯示，中國都市人口約有9億，其中約有2.7億人生活在每年下陷逾3公分的的地區，相當於都市人口的29%，加上海平面上升情形日漸加劇，最終中國會有約四分之一的沿岸地帶低於海平面，上億居民將面臨洪水危機。
+綜合外媒報導，這篇有關中國土地現況的報告在期刊《科學》（Science）上發表，研究團隊透過衛星雷達觀測中國82個主要城市近幾年的地層下陷情形，發現約有45%的地區每年下沉超過3公釐，更有16%土地平均每年下沉超過10公釐，且約有6700萬居民生活於此。研究小組指出，由於中國城市人口眾多，即使地層下陷只占一小部分，威脅仍不容忽視。
+根據了解，造成中國土地逐年下沉主因是過度抽用地下水，另一因素為城市土地上的重量不斷增加，不斷增加的沉重建物將土壤越壓越緊實，且研究人員預計，由於地層下陷和海平面上升，最終中國會有約四分之一的沿岸地帶低於海平面，包含天津、上海、廣州等都市，數億人將面臨洪水威脅。
+人口超過1,500萬的天津市被認為是「最嚴重受災城市」，2023年6月間，一場「突發地質災害」讓3幢大樓出現裂痕、地下室滲水，有3,000名居民被緊急疏散。事發後，調查人員將災害肇因歸咎於地下水資源枯竭，以及地熱井的鑽井施工觸動深層「地質空腔」所致。
+不僅是中國有此問題，世界各地皆面臨地層下陷危機，在今年2月發表的另項研究指出，全球約630萬平方公里的土地有下陷風險，尤為印尼情況最為告急，首都雅加達大部分地區現已低於海平面，另據新加坡2022年一項研究，內容提及全世界有著嚴重地層下陷的44個沿海主要城市中，就有30個位於亞洲。</t>
+  </si>
+  <si>
+    <t>2024/04/20</t>
+  </si>
+  <si>
+    <t>中國百年後沿海城市26％土地恐低於海平面 北京下陷速度最快</t>
+  </si>
+  <si>
+    <t>國際</t>
+  </si>
+  <si>
+    <t>李欣潔／核稿編輯
+〔即時新聞／綜合報導〕中國各大都市面臨地層下陷的環境危機，北京大學城市與環境學院生態研究中心研究員陶勝利團隊、華南師範大學北斗研究院敖祖銳團隊等人，共同在頂尖期刊《科學》發表論文，指稱2120年中國沿海城市恐有26％土地會低於海平面，北京是全中國下沉速度最快的都市之一。
+據《紐約時報》報導，中國16％的大城市每年海拔高度下降超過10公釐，近一半城市每年海拔高度下降超過3公釐，這些數字看起來不大，但日積月累之下不能忽視。
+這些城市的地層下陷有一部分是由於建物和基礎設施的重量造成的，超抽地下水、開採石油和煤礦也是原因之一，上述影響到環境的行為，可能會造成土壤和岩石的擠壓和坍塌。
+研究人員透過雷達圖像，測量中國82個主要都市2015至2022年間地表升降狀況，並和當地建物重量、地下水位進行比較，結果發現中國沿海城市目前約有6％土地相對海拔低于海平面，假如2120年全球平均海平面上升0.87公尺，則可能會上升到26％。
+其中，北京是全中國下陷速度最快的城市之一，鄰近的天津也有同樣危機，天津去年數條道路突然發生地裂狀況，導致數千居民從公寓撤離。中國都市下陷狀況是不均勻的，亦即不同區域以不同的速度下沉，使得土地上的建物面臨受損風險。
+都市土地低於海平面並不代表滅亡，荷蘭大部分地區都在海平面以下並持續下陷，但荷蘭展開了大量的蓄洪工程防止洪災。中國研究人員認為，降低下陷速度的關鍵是限制地下水抽取，上海實施地下水管理後下沉速度比中國其他城市更慢，日本東京和大阪多年來的地下水規劃已能夠穩定地表沉降狀況。
+不過，審查該篇論文的英國東英吉利大學氣候科學家和土木工程專家尼科爾斯（Robert Nicholls）透露，地層下陷是中國全國性的問題，很難完全阻止，中國沿海地區必須適應海平面上升、地表下沉的狀況。
+同樣參與審查論文的美國維吉尼亞理工大學地球物理學家希爾扎伊（Manoochehr Shirzaei），曾以類似的方法研究了美國沿海都市的下沉，他直指地層下陷幾乎在任何地方都存在，卻一直遭到忽視。
+希爾扎伊說，目前大多數應對氣候變化（指海平面上升）的策略都是不準確的，因為這些都沒有考慮到地層下陷狀況，這個課題從未像海平面上升一樣得到廣泛研究。</t>
+  </si>
+  <si>
+    <t>2024/04/21</t>
+  </si>
+  <si>
+    <t>中國45%主要城市都在下陷！每年災損337億元 2.7億人面臨洪水風險</t>
+  </si>
+  <si>
+    <t>[周刊王CTWANT] 根據美國科學促進會（AAAS）出版的期刊《科學》（Science）於18日發表的論文顯示，中國近一半主要城市面臨「中度至重度」的地層下陷問題，45%的城市每年下陷超過3毫米；16%的城市每年快速下陷逾10毫米，並造成每年75億元人民幣（約合新台幣337億元）的經濟損失，預計未來1世紀內，中國沿海城市可能有1/10的居民將生活在海平面以下。
+下陷主因則包括地下水位下降，以及建築環境對地下土壤帶來的沉重壓力等，尤其都市化進程更是加速了地下水資源過度開採，以及大量建築物的重壓，受影響的城市包括北京、天津、合肥和西安等。由於中國城市人口已超過9億人，因此「即使只有一小部分的土地下陷，都有可能對城市生活構成重大威脅」，涉及居民安全、基礎建設、交通運作及生態環境等多個層面。
+研究估算，地層下陷已使中國年經濟損失超過75億元人民幣，凸顯了問題的嚴峻與急迫，例如擁有1500萬人口的天津，近幾年都是水患受災嚴重的地區之一。未來，隨著全球暖化造成的海平面上升，以及地層下陷持續，預計下個世紀，中國將有近1/4的沿海土地低於海平面，洪水風險劇增。
+除沿海城市，中國舊煤區亦因過度開採出現類似狀況。地下礦產開採導致土地結構變化，引發地層下陷。地方政府常採取向礦井注漿加固等臨時措施，但無法從根源解決問題。
+英國東英吉利大學（University of East Anglia）氣候變遷研究中心主任尼可斯指出，地層下陷不僅是中國的全國性問題，也是全球的重大危機。今年2月的研究顯示，全世界約有630萬平方公里的土地有下陷風險，尤其印尼更是如此，其首都雅加達（Jakarta）大部分區域目前已低於海平面，加劇洪水風險並嚴重威脅居民生活與生態環境。</t>
+  </si>
+  <si>
+    <t>2024/04/22</t>
+  </si>
+  <si>
+    <t>南投爭取自來水補助 陳揆未回應</t>
+  </si>
+  <si>
+    <t>因應極端氣候，水利署投入123.6億元展開「鳥嘴潭人工湖下游自來水供水工程計畫」，包括6座人工蓄水池及草屯、鳥嘴潭2座淨水場，鳥嘴潭人工湖自2022年11月起每日供水9萬噸，其中彰化7萬噸、南投2萬噸。草屯淨水場今年3月27日正式完工出水，總供水量提升到每日14萬噸，並持續推動鳥嘴潭淨水場工程，預計2025年底可達日供25萬噸目標，4萬噸供草屯，21萬噸供彰化地區使用。
+陳建仁與經濟部長王美花視察草屯淨水場新建工程，立委馬文君、游顥等均到場。王瑞德當場向陳建仁爭取補助延管或增加簡易自來水經費補助，盼讓偏鄉地區鄉親也能同享量好質優的水資源。他並建議，鳥嘴潭人工湖周遭可執行綠毯計畫、持續綠美化，取得民眾對水庫建設的喜愛。
+陳建仁說，烏溪鳥嘴潭人工湖計畫是政府核定「雲彰地區地層下陷具體解決方案暨行動計畫」中的重大建設之一，草屯淨水場為其中一環，3月已達最大設計的出水功能，通過5萬CMD（立方公尺／每日）的能力測試，比原訂期程提早3個月，相信未來完工後，定能穩定供應質優、量足的水資源，進一步帶動地方發展。
+游顥會後指出，南投縣水源長期不斷供給外縣市居民使用，但南投縣的自來水普及率及水管汰舊換新都需要中央支持，草屯淨水廠應優先滿足南投縣內用水需求，剩餘供水量再調度給外縣市，才能實際解決南投縣用水問題。</t>
+  </si>
+  <si>
+    <t>2024/05/05</t>
+  </si>
+  <si>
+    <t>南投自來水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南投副縣長當面陳情自來水不足 行政院長陳建仁避而不答</t>
+  </si>
+  <si>
+    <t>烏溪鳥嘴潭人工湖是中部地區最重要的水利計畫，總蓄水量1450萬立方公尺，目前透過草屯淨水場5月起每日供水14萬噸，等彰化鳥嘴潭淨水場明年12月完工，可達到最大每日25萬噸供水量。
+陳建仁和經濟部長王美花今天視察草屯淨水場，自來水公司董事長李嘉榮簡報，中部地區供水面臨極端氣候影響和產業發展區，整體需水量不斷增加，也造成雲彰地區超抽地下水、地層下陷。鳥嘴潭人工湖可增加供水，並改善地層下陷問題。
+人工湖已蓄滿5個湖區，C湖區預計5月底蓄滿，台水負責下游自來水供水計畫，包含草屯、鳥嘴潭兩座淨水場、10公里原水導水管工程已完工，總長85公里送水管、聯絡管工程已完成54公里，草屯淨水場可供應草屯和鄰近地區15萬人用水。
+王瑞德說，南投縣有集集攔河堰、湖山水庫、鳥嘴潭人工湖，都是供應下游彰化、雲林使用，南投縣民配合政府政策，但南投縣偏鄉沒有自來水，且自來水延長管線成本高，南投縣政府每次提競爭型計畫都沒被選上，只能開闢簡易自來水，影響鄉親健康。希望中央能重視南投自來水管線延管工程，或加大簡易自來水補助，讓南投鄉親也能喝到量好質優的自來水。
+陳建仁說，北從翡翠水庫、石門水庫一路下來，這些水庫形成一粒粒「珍珠串」，讓台灣水資源調度更好，也顯示台灣人民的慈悲善良，願意彼此幫忙、互相援助。鳥嘴潭人工湖除了供應民生用水，也會持續綠美化，變成南投新的觀光地標。
+立委游顥說，南投縣水源供應彰化、雲林地區使用，但行政院對南投回饋和協助不足，王瑞德副縣長當場反映自來水普及率和水管汰舊換性、草屯地區東八里4800戶水員供應不足，但陳院長沒有回應。他會在立法院繼續爭取，也希望行政院重視南投用水的問題。</t>
+  </si>
+  <si>
+    <t>全國最大米鄉地層下陷惡化！ 雲縣府爭取納入擴大灌區</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔記者黃淑莉／雲林報導〕根據水利署監測資料，全國最大米鄉—大埤鄉近5年地層下陷面積及深度有惡化情況，分析原因極端氣候水情不穩，地下水用量增，對此，縣府爭取農業部農田水利署將大埤納入擴大溉灌服務範圍，可從北港溪引水在高灘地建置蓄水池，再新建管路供農田灌溉用，經費約3.3億元。
+縣府水利處指出，水利署2023雲林地層下陷監測結果顯示，雲林顯著下陷面積247.7平方公里，比前年2022年略增一些，顯著下陷重點地區土庫、元長的地下水位仍有持續下陷形。
+水利處長許宏博表示，整體監測結果可看出，雲林沿海地層下陷有趨緩，顯著下陷主要在虎尾、土庫、元長、北港、四湖、褒忠、水林、崙背及大埤，值得注意是大埤鄉下陷面積、深度近5年有惡化現象。
+許宏博指出，大埤是全國水稻種植面積最多的鄉鎮，但因位處農田水利事業區域灌溉系統末端或區外，包括北鎮、西鎮及怡然等村，若要一年兩作，無水可灌溉一定要抽地下水使用，在水稻面積不變，用水量都固定情況下，地層下陷應不致惡化，主要變數就是水情，尤其這幾年極端氣候，2021遇百年大旱、2023去年又遇200年大旱，這2次地下水抽得多，去年枯水期地下水位洩降大埤達15公尺最嚴重。
+許宏博說，目前大埤農民灌溉情況有3種，第一種是引地面水即區排；第二種是抽地下水，由幾個農民共同一個公井，再分擔電費；第三種是抽北港溪水；為減緩大埤地層下陷持續惡化，縣府早先已建議列為優先防治地，也針對大埤取水灌溉進行初步規劃及構想，考量北港溪尚有水權可申請，即從北港溪引地面水到高灘地的蓄水池，供給農田灌溉使用。</t>
+  </si>
+  <si>
+    <t>2024/01/01</t>
+  </si>
+  <si>
+    <t>雲林地層下陷惡化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雲林去年地層下陷面積增加 全台最大稻鄉惡化…高鐵或受威脅</t>
+  </si>
+  <si>
+    <t>經濟部水利署監測雲林縣地層下陷，去年雲林顯著下陷面積247.7平方公里，較前年略增，全台面積最大稻作鄉鎮大埤鄉因部分地區非灌區，僅能抽取地下水，近年下陷面積逐漸擴大，縣府提出大埤鄉非灌區灌溉水源改善工程，提報中央爭取專案經費，並建請農田水利署將該區納入擴大灌溉服務範圍。
+根據水利署監測資料顯示，雲林縣去年顯著下陷面積為247.7平方公里，較前年239.5公里增加，年下陷速度約7公分，土庫及元長水位仍有持續下降趨勢，枯水期間各監測站地下水位最大洩降約4至15公尺，其中又以大埤監測站洩降15公尺最嚴重，為雲林縣近年地層下陷顯著的農業重點鄉鎮，
+縣府水利處長許宏博表示，過去雲林縣地層下陷以高鐵沿線虎尾、土庫、元長及北港較為嚴重，但近年大埤鄉地層下陷有惡化趨勢，主因為大埤鄉為全台稻作面積最大鄉鎮，種植面積逾5千公頃，但部分地區非灌區，需仰賴地表水或抽取地下水灌溉，導致近5年地層下陷面積及深度都惡化。
+為改善地層下陷，縣府已針對該區域取水灌溉進行初步規畫，擬在北港溪高灘地設置調蓄池及臨時性滯水設施，透過貯蓄北港溪水源，新建給水管路供給非灌區農田使用，經費約3.32億元，將向中央提報，並建議農業部農田水利署擴大非灌區灌溉服務範圍。
+雲林縣長張麗善說，極端氣候越來越嚴峻，地面水資源無法支持產業所需，農田水利署如未能綜合考量水資源供應量，農民因耕作及生計所需，勢必尋求抽取地下水因應，導致地層下陷問題，對於行經的高鐵行車安全亦可能造成嚴重威脅。
+許宏博表示，針對高鐵沿線虎尾、土庫、元長及北港四鄉鎮地區，縣府將持續加強查察水井用水情形，並檢討與研議增設調蓄設施，增供地表水，以限制溉地下水抽取；在自來水可到達的水井將逐年核減水權，以減少地下水抽取造成地層下陷。雲林縣大埤鄉為全台面積最大稻作鄉鎮，因部分地區非灌區，僅能抽取地下水，近年地層下陷面積逐漸擴大。記者陳雅玲／攝影</t>
+  </si>
+  <si>
+    <t>['地下水', '地層下陷', '雲林']</t>
+  </si>
+  <si>
+    <t>大埤灌溉問題地層下陷惡化 雲縣府擬引北港溪水源</t>
+  </si>
+  <si>
+    <t>根據水利署監測資料，雲林縣水稻最大種植地區大埤鄉，近5年地層下陷面積與深度有惡化現象。為了避免極端氣候造成水情吃緊、地層下陷持續，雲縣府建議引北港溪水源，新建給水管路供應灌溉，經費約3.3億餘元，並提報中央等待核准辦理中。2期稻收割後農民忙著整地，雲林大埤鄉是雲林種植水稻面積最大地區，但卻時常面臨灌溉水源不足問題。有當地農民就說，為灌溉農田田區同時要用2至3口井放水，才能夠來因應。雲林大埤鄉農民表示，「就是都沒有水。如果有人耕田廣一點，就用大井水，比較深層的。我這個都是小井水，就很難去灌溉，有時要放水1天1夜才能全部都讓水覆蓋。」雲縣府表示，根據水利署監測資料，大埤鄉下陷面積和深度持續擴大，主要就是因為農田水利事業區域的灌溉系統末端或區外，包括北鎮、西鎮及怡然等村，若要一年兩作無水可灌溉，一定要抽取地下水使用。雲縣府水利處處長許宏博表示，「非灌區地方，去想辦法怎麼用地面水源來補充，我們研究是以大埤附近北港溪，去引北港溪水源，作為1期稻作的灌溉水源。」雲縣府水利處表示，為改善大埤鄉地層下陷惡化問題，縣府完成大埤非灌區灌溉水源改善工程前期規劃，希望引北港溪地面水到高灘地設置調蓄水池等，供給農田灌溉使用，但概估工程經費約3.3億，目前已經報請中央等待核定中。</t>
+  </si>
+  <si>
+    <t>['地層下陷', '縣府', '北港', '水利處', '雲林']</t>
+  </si>
+  <si>
+    <t>2024/01/02</t>
+  </si>
+  <si>
+    <t>雲林大埤下陷惡化 農水署：待縣府提擴大灌溉計畫</t>
+  </si>
+  <si>
+    <t>媒體報導雲林縣大埤鄉水情不穩，地下水用量增加，地層下陷惡化。農田水利署今天表示，雲林縣府有提出納入擴大灌溉服務構想，已請其提擬更具體的計畫，再共同推動擴大灌溉服務。
+媒體報導，水稻產區雲林縣大埤鄉近年地層下陷情況惡化，可能與水情不穩，抽取地下水用量增加有關，雲林縣政府因此想爭取農業部農田水利署將之納入擴大灌溉服務範圍。
+農水署副署長陳衍源告訴中央社記者，雲林縣政府有提出構想，農水署也已回覆，請縣府提出更具體的計畫，收到計畫後會審查，然後跟縣府共同推動擴大灌區服務的計畫。
+針對成立3年3個月來，已擴大5.6萬公頃農田獲得灌溉用水，約8萬多名農民受惠，農水署並規劃114年要擴增至8.8萬公頃。陳衍源說，要等縣府提出具體計畫後會先做審查，因此能否納入114年的8.8萬公頃目標內，尚未確定，但應不受此影響，擴大灌溉服務計畫會持續推動。
+另外，陳衍源也說，如果能設計引用河川水作為灌溉使用，希望能替代當地抽用地下水，對減緩地層下陷有所幫助。</t>
+  </si>
+  <si>
+    <t>2024/01/03</t>
+  </si>
+  <si>
+    <t>高鐵雲林段累積下陷114.2公分 鐵道局：結構安全</t>
+  </si>
+  <si>
+    <t>（中央社記者汪淑芬台北29日電）根據鐵道局新公布的台灣高鐵路段下陷監測報告，彰化、雲林下陷持續，累積下陷量最大的是雲林114.2公分。鐵道局表示，高鐵墩柱角變量都在容許範圍內，結構安全無虞。
+高鐵路線通過彰化、雲林及嘉義主要地層下陷區，台灣高鐵公司從民國92年至今，委託學術單位，持續每年定期針對高鐵沿線結構墩柱下陷進行監測，並提報交通部，鐵道局日前公布112年監測報告。
+根據最新報告，高鐵路線最大累積下陷量已達到114.2公分，其位於雲林縣土庫鎮台78線與高鐵交界處的墩柱，但自103年進行改善工程後，目標範圍內的墩柱差異沉陷量呈逐年降低趨勢。
+監測報告顯示，112年高鐵彰化、雲林共8處路段的下陷量從2.6公分（彰化縣溪州鄉）到5.4公分（雲林縣土庫鎮與元長鄉交界），都比111年增加，嘉義不但未再下陷，還連續2年回脹，但112年的回脹量比111年少。
+鐵道局指出，較值得關注的高鐵下陷路段，包括彰化溪州高鐵與中山高跨交段、高鐵雲林車站區、高鐵跨雲158縣道、高鐵跨台78號快速道路，與高鐵行車安全有關的橋墩間差異沉陷所累積角變量，目前都仍在容許範圍內（連續梁為1/1500、簡支梁1/1000），高鐵結構安全無虞。
+鐵道局指出，高鐵零星數處累積角變量有逾容許範圍的橋墩（結構型式皆為簡支梁），台灣高鐵已納入定期軌道巡檢及土建設施維護計畫，持續密切關注，並依角變量變化速率，按風險等級高低，採取相應加密監測頻率，並已備妥軌道調整及預防性結構補強方案。
+根據監測報告，目前高鐵累積角變量超過標準值的橋墩，反而是在沉陷改善的嘉義路段，位於朴子溪河中，目前簡支梁累積角變量達1.96/1000；而朴子溪北岸簡支梁累積角變量為0.395/1000，雖仍在容許值範圍，但已從109年起逐年增加。（編輯：張雅淨）1130429</t>
+  </si>
+  <si>
+    <t>2024/04/29</t>
+  </si>
+  <si>
+    <t>高鐵雲林</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高鐵路段監測雲林段累積下陷114.2公分 鐵道局：結構安全</t>
+  </si>
+  <si>
+    <t>台灣高鐵公司從民國92年至今，委託學術單位，持續每年定期針對高鐵沿線結構墩柱下陷進行監測，並提報交通部，鐵道局日前公布2023年監測報告。根據最新報告，高鐵彰化、雲林路段下陷持續，高鐵路線最大累積下陷量已達到114.2公分，位於雲林縣土庫鎮台78線與高鐵交界處的墩柱，但自103年進行改善工程後，目標範圍內的墩柱差異沉陷量呈逐年降低的趨勢。
+監測報告顯示，2023年的高鐵彰化、雲林共8處路段的下陷量從2.6公分（彰化溪洲）到5.4公分（雲林縣土庫鎮與元長鄉交界），都比2022年增加，嘉義不但未再下陷，還連續2年回脹，但2023年的回脹量比2022年少。
+鐵道局說，較值得關注的高鐵下陷路段，包括：彰化溪州高鐵與中山高跨交、高鐵雲林車站區、高鐵跨雲158縣道、高鐵跨台78號快速道路，與高鐵行車安全有關的橋墩間差異沉陷所累積角變量，目前皆在容許範圍內（連續梁為1/1500、簡支梁1/1000），高鐵結構安全無虞。
+鐵道局說，高鐵有零星數處的累積角變量有逾容許範圍的橋墩（結構型式皆為簡支梁），台灣高鐵已納入定期軌道巡檢及土建設施維護計畫，持續密切關注，並依角變量變化速率，按風險等級高低，採取相應加密監測頻率，並已備妥軌道調整及預防性結構補強方案。根據監測報告，目前高鐵累積角變量過標準值的橋墩，反而是位在沉陷改善的嘉義路段，位在朴子溪河中，目前簡支梁累積的角變量達1.96/1000，而朴子溪北岸簡支梁累積角變量為0.395/1000，雖仍在容許值範圍，但已從2020年起逐年增加。</t>
+  </si>
+  <si>
+    <t>高鐵雲林段去年再下陷5.4公分 地層下陷防治遇瓶頸</t>
+  </si>
+  <si>
+    <t>〔記者鄭旭凱／雲林報導〕鐵道局公布去年高鐵沿線雲林路段不僅持續下陷5.4公分，且累積下陷量已達114.2公分，全國下陷最嚴重；雲林縣政府表示，沿途現有的12萬6千口的灌溉水井，政府只能加以管制不能禁止其繼續抽水，地下水入不敷出，自然持續下陷。
+高鐵公司從2003年起委託學術單位，每年針對高鐵沿線結構墩柱地層下陷進行監測，去年高鐵沿線持續下陷的路段包彰化及雲林共8處，下陷量從2.6公分到5.4公分，最大累積下陷量已達到114.2公分，地點是雲林縣土庫鎮台78線與高鐵交界處的墩柱，不過，與高鐵行車安全有關的橋墩間差異沉陷所累積角變量，目前都仍在容許範圍內，高鐵結構安全無虞。
+雲林縣政府水利處處長許宏博表示，雖然相關單位持續針對地層下陷進行防治，但雲林高鐵沿線既有的水井擁有合法水權，數量多達12萬6千口，政府不能禁止抽水，農民灌溉持續抽水，地下水補充不及，當然會持續下陷。
+許宏博表示，縣府也積極輔導高鐵沿線種植水稻的農民轉作大豆及玉米等作物，還是遇到一些瓶頸，由於雲林農村人力嚴重老化，許多水田都是代耕，老農根本無力自行耕種，但旱田卻沒有代耕行業，即使水田的利潤低，農民也無力轉作。</t>
+  </si>
+  <si>
+    <t>2024/05/02</t>
+  </si>
+  <si>
+    <t>高鐵沿線地層下陷 雲林全國最糟</t>
+  </si>
+  <si>
+    <t>去年再增5.4公分 累計達114.2公分 防治卻遇瓶頸
+〔記者鄭旭凱／雲林報導〕鐵道局公布台灣高鐵路段下陷監測報告，去年雲林路段不僅持續下陷五．四公分，且累積下陷量已達一一四．二公分，全國最高。雲林縣政府水利處處長許宏博表示，針對高鐵沿線地層下陷問題，中央成立跨部會平台進行監控、整治，但沿途現有的十二萬六千口灌溉水井，政府只能管制限制其繼續深挖，無權禁止使用，地下水入不敷出，地層自然持續下陷，地層下陷遭遇的瓶頸仍待解決。
+12.6萬口灌溉水井 無法禁用
+台灣高鐵行經彰化、雲林及嘉義等地層下陷區，高鐵公司從二○○三年起委託學術單位監測，最新監測報告指出，去年高鐵沿線持續下陷的路段包彰化及雲林共八處，最值得關注的路段包括彰化溪州高鐵與中山高跨交段、高鐵雲林車站區、高鐵跨雲一五八縣道及高鐵跨台七八線快速道路等四個地點，下陷量從二．六公分到五．四公分不等，且比前年增加，但嘉義卻未再下陷，甚至已連續兩年地層還上升。
+與土庫台78線交界處 下陷最多
+監測報告指出，高鐵沿線最大累積下陷量已達一一四．二公分，地點在雲林縣土庫鎮台七八線與高鐵交界處，進行改善工程後，墩柱差異沉陷量逐年降低，與高鐵行車安全有關的橋墩間差異沉陷所累積角變量，目前都在容許範圍內，高鐵結構安全無虞。
+許宏博表示，地層下陷防治工作遭遇瓶頸，雲林高鐵沿線既有的水井擁有合法水權，數量多達十二萬六千口，政府不能禁止農民抽水，何況這更關係到大約十二萬六千戶農民的生計，農民持續抽水，地層自然持續下陷。
+輔導水田轉作旱田 推動不易
+許宏博表示，一公頃的水田轉作旱田，一年可望省下八千噸的灌溉水，縣府積極輔導高鐵沿線種植水稻的農民轉作大豆及玉米等，但雲林農村人力嚴重老化，種植水田的老農無力自行耕種，多數委託代耕，但旱田卻沒有代耕業者，即使水田的利潤低，農民也無力轉作，類似的瓶頸仍有待中央統籌解決。</t>
+  </si>
+  <si>
+    <t>2024/05/03</t>
+  </si>
+  <si>
+    <t>高鐵雲林段持續下陷 與台78線交界落差114.2公分</t>
+  </si>
+  <si>
+    <t>去年高鐵沿線持續下陷，路段包括彰化、雲林共8處，下陷量從2.6公分到5.4公分，雲林縣土庫台78線與高鐵交界處，累積下陷量達到114.2公分，是全國下陷最嚴重的地方。
+鐵道局土木建築組副組長謝炎廷回應，「這路段經由高鐵公司施作橋梁預防性的改善措施，以及公路局移除台78號的高路堤荷載，改以鋼橋行駛型式取代之後，經過我們長期追蹤，沉陷量已趨於穩定。」
+雲縣府水利處表示，雖然相關單位有針對地層下陷進行防治，但雲林高鐵沿線既有的合法水井高達12萬6千口，政府不能禁止抽水只能管理，加上輔導農民轉旱作也出現難題。
+雲縣府水利處技正林昆賢指出，「水稻田原則上來講，幾乎百分之百是都可以機械耕作，所以它在人力上是最沒有問題的。那我們要轉旱作的時候，因為各種旱作目前來講，機械跟機械耕作的比例，都跟水田比起來都有很大落差。」
+水利處表示，要輔導高鐵沿線農民轉旱作，除了碰上人力不足問題，還存在產銷失衡情況，因農民若旱作只能透過契作，沒有保價機制，多少降低農民轉作意願，這些問題還有待中央統籌解決。</t>
+  </si>
+  <si>
+    <t>全球暖化將致雲林溢淹顯著 水利處：地層下陷也是主因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根據環境部、國科會報告指出，若全球暖化未來無法有效控制增溫，未來海平面上升會再造成海岸溢淹，又以雲林最嚴重。
+雲林縣水利處長許宏博提及，「以大數據來看幾十年，可能就只有上升1到2公分，相對地層下陷的因素，這可能是較小影響程度，不過因應整個地層下陷或是海洋暖化海平面上升，這是雲林縣必須去克服。」
+雲縣府水利處表示，除暖化影響海岸溢淹面積，雲林縣面對最大危機是地層下陷，1年在內陸地區有平均5至6公分下陷、沿海地區平均2至3公分下陷，現在針對四湖箔子寮漁港也提出因應。
+許宏博說明，「較低地方我就會蓋一個類似牆，然後去墊高，讓它們潮位來時不會溢到內陸裡面，都擋在防潮牆之外。」
+水利處表示，若海平面上升淹水面積自然加大，經盤點雲林四湖箔子寮漁港比較危急，去年9月經中央、地方共同會勘後，將花3500萬元加高碼頭港岸，以防海水再入侵，整個工程預計再半年可完工。</t>
+  </si>
+  <si>
+    <t>2024/05/10</t>
+  </si>
+  <si>
+    <t>雲林溢淹顯著</t>
+  </si>
+  <si>
+    <t>全球暖化將致雲林溢淹顯著 水利處：地層下陷也是主因</t>
+  </si>
+  <si>
+    <t>根據環境部、國科會發布全球暖化若未來無法有效控制增溫，台灣夏天可能長達7個月，海平面上升會造成海岸溢淹面積增加，其中以雲林溢淹面積增加最顯著，對此雲縣府水利處表示，除了暖化影響，地層下陷也是影響主因，目前四湖箔子寮漁港配合中央提出因應計畫。雲林縣最大箔子寮漁港，去（2023）年8月發生嚴重海水倒灌，整座漁港幾乎都被淹沒，甚至危及近鄰村落。根據環境部、國科會報告指出，若全球暖化未來無法有效控制增溫，未來海平面上升會再造成海岸溢淹，又以雲林最嚴重。雲林縣水利處長許宏博提及，「以大數據來看幾十年，可能就只有上升1到2公分，相對地層下陷的因素，這可能是較小影響程度，不過因應整個地層下陷或是海洋暖化海平面上升，這是雲林縣必須去克服。」雲縣府水利處表示，除暖化影響海岸溢淹面積，雲林縣面對最大危機是地層下陷，1年在內陸地區有平均5至6公分下陷、沿海地區平均2至3公分下陷，現在針對四湖箔子寮漁港也提出因應。許宏博說明，「較低地方我就會蓋一個類似牆，然後去墊高，讓它們潮位來時不會溢到內陸裡面，都擋在防潮牆之外。」水利處表示，若海平面上升淹水面積自然加大，經盤點雲林四湖箔子寮漁港比較危急，去年9月經中央、地方共同會勘後，將花3500萬元加高碼頭港岸，以防海水再入侵，整個工程預計再半年可完工。</t>
+  </si>
+  <si>
+    <t>['地層下陷', '水利處', '全球暖化', '雲林縣', '漁港']</t>
   </si>
 </sst>
 </file>
@@ -1086,13 +1775,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1374,19 +2066,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:G30"/>
+      <selection activeCell="G5" sqref="A2:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="7" max="7" width="73.75" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="73.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1406,262 +2098,273 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
       </c>
       <c r="E12" t="s">
         <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
         <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
         <v>49</v>
@@ -1671,18 +2374,18 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
         <v>49</v>
@@ -1692,18 +2395,18 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
@@ -1713,15 +2416,15 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
         <v>66</v>
@@ -1734,18 +2437,18 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
         <v>49</v>
@@ -1755,18 +2458,18 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
         <v>49</v>
@@ -1776,15 +2479,15 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
         <v>66</v>
@@ -1797,1006 +2500,1937 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" t="s">
-        <v>103</v>
-      </c>
-      <c r="F31" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F33" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" t="s">
-        <v>118</v>
-      </c>
-      <c r="F34" t="s">
-        <v>9</v>
-      </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="D36" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="E36" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="F36" t="s">
         <v>6</v>
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>126</v>
+        <v>161</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="F37" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E38" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="B39" t="s">
         <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="E40" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="F40" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="B41" t="s">
         <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="E41" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>181</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="E43" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="F43" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>184</v>
+      </c>
+      <c r="B44" t="s">
+        <v>185</v>
       </c>
       <c r="C44" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="E44" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="F44" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>188</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
       </c>
       <c r="C45" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="D45" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="E45" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="F45" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="B46" t="s">
         <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="D46" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="E46" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>196</v>
+      </c>
+      <c r="D47" t="s">
+        <v>197</v>
       </c>
       <c r="E47" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>169</v>
-      </c>
-      <c r="B48" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="E48" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="F48" t="s">
-        <v>9</v>
+        <v>203</v>
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="E49" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="F49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="D50" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="E50" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
       </c>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>179</v>
-      </c>
-      <c r="B51" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" t="s">
+        <v>212</v>
+      </c>
+      <c r="E51" t="s">
+        <v>213</v>
+      </c>
+      <c r="F51" t="s">
+        <v>203</v>
+      </c>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" t="s">
+        <v>215</v>
+      </c>
+      <c r="D52" t="s">
+        <v>216</v>
+      </c>
+      <c r="E52" t="s">
+        <v>213</v>
+      </c>
+      <c r="F52" t="s">
+        <v>203</v>
+      </c>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" t="s">
+        <v>218</v>
+      </c>
+      <c r="D53" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53" t="s">
+        <v>213</v>
+      </c>
+      <c r="F53" t="s">
+        <v>203</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54" t="s">
+        <v>240</v>
+      </c>
+      <c r="E54" t="s">
+        <v>241</v>
+      </c>
+      <c r="F54" t="s">
+        <v>203</v>
+      </c>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" t="s">
+        <v>221</v>
+      </c>
+      <c r="D55" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>224</v>
+      </c>
+      <c r="B56" t="s">
         <v>100</v>
       </c>
-      <c r="C51" t="s">
-        <v>180</v>
-      </c>
-      <c r="D51" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" t="s">
-        <v>174</v>
-      </c>
-      <c r="F51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>181</v>
-      </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" t="s">
-        <v>182</v>
-      </c>
-      <c r="E52" t="s">
-        <v>183</v>
-      </c>
-      <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>184</v>
-      </c>
-      <c r="B53" t="s">
-        <v>185</v>
-      </c>
-      <c r="C53" t="s">
-        <v>186</v>
-      </c>
-      <c r="E53" t="s">
-        <v>187</v>
-      </c>
-      <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>188</v>
-      </c>
-      <c r="B54" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" t="s">
-        <v>189</v>
-      </c>
-      <c r="D54" t="s">
-        <v>190</v>
-      </c>
-      <c r="E54" t="s">
-        <v>187</v>
-      </c>
-      <c r="F54" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>191</v>
-      </c>
-      <c r="B55" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" t="s">
-        <v>192</v>
-      </c>
-      <c r="D55" t="s">
-        <v>193</v>
-      </c>
-      <c r="E55" t="s">
-        <v>194</v>
-      </c>
-      <c r="F55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>195</v>
-      </c>
-      <c r="B56" t="s">
-        <v>58</v>
-      </c>
       <c r="C56" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="D56" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="E56" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>199</v>
+        <v>228</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="D57" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="E57" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="F57" t="s">
-        <v>203</v>
+        <v>9</v>
       </c>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>204</v>
+        <v>231</v>
+      </c>
+      <c r="B58" t="s">
+        <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D58" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="E58" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="F58" t="s">
-        <v>203</v>
+        <v>9</v>
       </c>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="D59" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="E59" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
       </c>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>210</v>
+        <v>242</v>
+      </c>
+      <c r="B60" t="s">
+        <v>100</v>
       </c>
       <c r="C60" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="D60" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="E60" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="F60" t="s">
-        <v>203</v>
-      </c>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>214</v>
+        <v>246</v>
+      </c>
+      <c r="B61" t="s">
+        <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="D61" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="E61" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="F61" t="s">
-        <v>203</v>
+        <v>9</v>
       </c>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="C62" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="D62" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="E62" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="F62" t="s">
-        <v>203</v>
-      </c>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="C63" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="D63" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="E63" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="F63" t="s">
-        <v>203</v>
-      </c>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>220</v>
+        <v>262</v>
+      </c>
+      <c r="B64" t="s">
+        <v>263</v>
       </c>
       <c r="C64" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="D64" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="E64" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="F64" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="C65" t="s">
-        <v>225</v>
-      </c>
-      <c r="D65" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="E65" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>263</v>
       </c>
       <c r="C66" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="D66" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="E66" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
       </c>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="C67" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D67" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="E67" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
       </c>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>235</v>
+        <v>276</v>
       </c>
       <c r="B68" t="s">
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="C68" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="D68" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="E68" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
       </c>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>242</v>
-      </c>
-      <c r="B69" t="s">
+        <v>280</v>
+      </c>
+      <c r="C69" t="s">
+        <v>281</v>
+      </c>
+      <c r="D69" t="s">
+        <v>282</v>
+      </c>
+      <c r="E69" t="s">
+        <v>283</v>
+      </c>
+      <c r="F69" t="s">
+        <v>203</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>285</v>
+      </c>
+      <c r="C70" t="s">
+        <v>286</v>
+      </c>
+      <c r="D70" t="s">
+        <v>287</v>
+      </c>
+      <c r="E70" t="s">
+        <v>283</v>
+      </c>
+      <c r="F70" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>288</v>
+      </c>
+      <c r="C71" t="s">
+        <v>289</v>
+      </c>
+      <c r="D71" t="s">
+        <v>287</v>
+      </c>
+      <c r="E71" t="s">
+        <v>283</v>
+      </c>
+      <c r="F71" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>290</v>
+      </c>
+      <c r="B72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" t="s">
+        <v>291</v>
+      </c>
+      <c r="E72" t="s">
+        <v>292</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>293</v>
+      </c>
+      <c r="C73" t="s">
+        <v>294</v>
+      </c>
+      <c r="D73" t="s">
+        <v>295</v>
+      </c>
+      <c r="E73" t="s">
+        <v>292</v>
+      </c>
+      <c r="F73" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>296</v>
+      </c>
+      <c r="C74" t="s">
+        <v>297</v>
+      </c>
+      <c r="D74" t="s">
+        <v>298</v>
+      </c>
+      <c r="E74" t="s">
+        <v>292</v>
+      </c>
+      <c r="F74" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>299</v>
+      </c>
+      <c r="C75" t="s">
+        <v>300</v>
+      </c>
+      <c r="D75" t="s">
+        <v>301</v>
+      </c>
+      <c r="E75" t="s">
+        <v>292</v>
+      </c>
+      <c r="F75" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>302</v>
+      </c>
+      <c r="C76" t="s">
+        <v>303</v>
+      </c>
+      <c r="D76" t="s">
+        <v>304</v>
+      </c>
+      <c r="E76" t="s">
+        <v>292</v>
+      </c>
+      <c r="F76" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>305</v>
+      </c>
+      <c r="C77" t="s">
+        <v>306</v>
+      </c>
+      <c r="D77" t="s">
+        <v>307</v>
+      </c>
+      <c r="E77" t="s">
+        <v>292</v>
+      </c>
+      <c r="F77" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>308</v>
+      </c>
+      <c r="B78" t="s">
         <v>100</v>
       </c>
-      <c r="C69" t="s">
-        <v>243</v>
-      </c>
-      <c r="D69" t="s">
-        <v>244</v>
-      </c>
-      <c r="E69" t="s">
-        <v>245</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="C78" t="s">
+        <v>309</v>
+      </c>
+      <c r="D78" t="s">
+        <v>310</v>
+      </c>
+      <c r="E78" t="s">
+        <v>292</v>
+      </c>
+      <c r="F78" t="s">
         <v>9</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>246</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>311</v>
+      </c>
+      <c r="C79" t="s">
+        <v>312</v>
+      </c>
+      <c r="D79" t="s">
+        <v>313</v>
+      </c>
+      <c r="E79" t="s">
+        <v>314</v>
+      </c>
+      <c r="F79" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>315</v>
+      </c>
+      <c r="B80" t="s">
+        <v>185</v>
+      </c>
+      <c r="C80" t="s">
+        <v>316</v>
+      </c>
+      <c r="E80" t="s">
+        <v>317</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>319</v>
+      </c>
+      <c r="B81" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81" t="s">
+        <v>320</v>
+      </c>
+      <c r="E81" t="s">
+        <v>321</v>
+      </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>322</v>
+      </c>
+      <c r="C82" t="s">
+        <v>323</v>
+      </c>
+      <c r="E82" t="s">
+        <v>324</v>
+      </c>
+      <c r="F82" t="s">
+        <v>325</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>327</v>
+      </c>
+      <c r="C83" t="s">
+        <v>328</v>
+      </c>
+      <c r="E83" t="s">
+        <v>324</v>
+      </c>
+      <c r="F83" t="s">
+        <v>325</v>
+      </c>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>329</v>
+      </c>
+      <c r="C84" t="s">
+        <v>330</v>
+      </c>
+      <c r="E84" t="s">
+        <v>324</v>
+      </c>
+      <c r="F84" t="s">
+        <v>325</v>
+      </c>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>331</v>
+      </c>
+      <c r="B85" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" t="s">
+        <v>332</v>
+      </c>
+      <c r="E85" t="s">
+        <v>324</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>333</v>
+      </c>
+      <c r="C86" t="s">
+        <v>334</v>
+      </c>
+      <c r="E86" t="s">
+        <v>324</v>
+      </c>
+      <c r="F86" t="s">
+        <v>325</v>
+      </c>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>335</v>
+      </c>
+      <c r="C87" t="s">
+        <v>336</v>
+      </c>
+      <c r="E87" t="s">
+        <v>324</v>
+      </c>
+      <c r="F87" t="s">
+        <v>325</v>
+      </c>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>337</v>
+      </c>
+      <c r="C88" t="s">
+        <v>338</v>
+      </c>
+      <c r="E88" t="s">
+        <v>324</v>
+      </c>
+      <c r="F88" t="s">
+        <v>325</v>
+      </c>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>339</v>
+      </c>
+      <c r="C89" t="s">
+        <v>340</v>
+      </c>
+      <c r="E89" t="s">
+        <v>324</v>
+      </c>
+      <c r="F89" t="s">
+        <v>325</v>
+      </c>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>341</v>
+      </c>
+      <c r="B90" t="s">
+        <v>185</v>
+      </c>
+      <c r="C90" t="s">
+        <v>342</v>
+      </c>
+      <c r="E90" t="s">
+        <v>343</v>
+      </c>
+      <c r="F90" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>344</v>
+      </c>
+      <c r="B91" t="s">
+        <v>263</v>
+      </c>
+      <c r="C91" t="s">
+        <v>345</v>
+      </c>
+      <c r="D91" t="s">
+        <v>346</v>
+      </c>
+      <c r="E91" t="s">
+        <v>347</v>
+      </c>
+      <c r="F91" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>349</v>
+      </c>
+      <c r="C92" t="s">
+        <v>350</v>
+      </c>
+      <c r="D92" t="s">
+        <v>351</v>
+      </c>
+      <c r="E92" t="s">
+        <v>347</v>
+      </c>
+      <c r="F92" t="s">
+        <v>203</v>
+      </c>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>352</v>
+      </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" t="s">
+        <v>353</v>
+      </c>
+      <c r="E93" t="s">
+        <v>354</v>
+      </c>
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>356</v>
+      </c>
+      <c r="C94" t="s">
+        <v>357</v>
+      </c>
+      <c r="E94" t="s">
+        <v>358</v>
+      </c>
+      <c r="F94" t="s">
+        <v>325</v>
+      </c>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>359</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" t="s">
+        <v>360</v>
+      </c>
+      <c r="E95" t="s">
+        <v>361</v>
+      </c>
+      <c r="F95" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>363</v>
+      </c>
+      <c r="C96" t="s">
+        <v>364</v>
+      </c>
+      <c r="E96" t="s">
+        <v>361</v>
+      </c>
+      <c r="F96" t="s">
+        <v>325</v>
+      </c>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>365</v>
+      </c>
+      <c r="C97" t="s">
+        <v>366</v>
+      </c>
+      <c r="E97" t="s">
+        <v>361</v>
+      </c>
+      <c r="F97" t="s">
+        <v>325</v>
+      </c>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>367</v>
+      </c>
+      <c r="C98" t="s">
+        <v>368</v>
+      </c>
+      <c r="E98" t="s">
+        <v>369</v>
+      </c>
+      <c r="F98" t="s">
+        <v>325</v>
+      </c>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>370</v>
+      </c>
+      <c r="B99" t="s">
+        <v>371</v>
+      </c>
+      <c r="C99" t="s">
+        <v>372</v>
+      </c>
+      <c r="E99" t="s">
+        <v>373</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>374</v>
+      </c>
+      <c r="C100" t="s">
+        <v>375</v>
+      </c>
+      <c r="E100" t="s">
+        <v>376</v>
+      </c>
+      <c r="F100" t="s">
+        <v>325</v>
+      </c>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>377</v>
+      </c>
+      <c r="C101" t="s">
+        <v>378</v>
+      </c>
+      <c r="E101" t="s">
+        <v>379</v>
+      </c>
+      <c r="F101" t="s">
+        <v>325</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>381</v>
+      </c>
+      <c r="C102" t="s">
+        <v>382</v>
+      </c>
+      <c r="E102" t="s">
+        <v>379</v>
+      </c>
+      <c r="F102" t="s">
+        <v>325</v>
+      </c>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>383</v>
+      </c>
+      <c r="B103" t="s">
+        <v>185</v>
+      </c>
+      <c r="C103" t="s">
+        <v>384</v>
+      </c>
+      <c r="E103" t="s">
+        <v>385</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>387</v>
+      </c>
+      <c r="B104" t="s">
         <v>100</v>
       </c>
-      <c r="C70" t="s">
-        <v>247</v>
-      </c>
-      <c r="D70" t="s">
-        <v>248</v>
-      </c>
-      <c r="E70" t="s">
-        <v>245</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="C104" t="s">
+        <v>388</v>
+      </c>
+      <c r="D104" t="s">
+        <v>389</v>
+      </c>
+      <c r="E104" t="s">
+        <v>385</v>
+      </c>
+      <c r="F104" t="s">
         <v>9</v>
       </c>
-      <c r="G70" s="2"/>
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>390</v>
+      </c>
+      <c r="C105" t="s">
+        <v>391</v>
+      </c>
+      <c r="D105" t="s">
+        <v>392</v>
+      </c>
+      <c r="E105" t="s">
+        <v>393</v>
+      </c>
+      <c r="F105" t="s">
+        <v>7</v>
+      </c>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>394</v>
+      </c>
+      <c r="B106" t="s">
+        <v>100</v>
+      </c>
+      <c r="C106" t="s">
+        <v>395</v>
+      </c>
+      <c r="D106" t="s">
+        <v>389</v>
+      </c>
+      <c r="E106" t="s">
+        <v>396</v>
+      </c>
+      <c r="F106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>397</v>
+      </c>
+      <c r="C107" t="s">
+        <v>398</v>
+      </c>
+      <c r="E107" t="s">
+        <v>399</v>
+      </c>
+      <c r="F107" t="s">
+        <v>325</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>401</v>
+      </c>
+      <c r="C108" t="s">
+        <v>402</v>
+      </c>
+      <c r="E108" t="s">
+        <v>399</v>
+      </c>
+      <c r="F108" t="s">
+        <v>325</v>
+      </c>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>403</v>
+      </c>
+      <c r="B109" t="s">
+        <v>185</v>
+      </c>
+      <c r="C109" t="s">
+        <v>404</v>
+      </c>
+      <c r="E109" t="s">
+        <v>405</v>
+      </c>
+      <c r="F109" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>406</v>
+      </c>
+      <c r="B110" t="s">
+        <v>185</v>
+      </c>
+      <c r="C110" t="s">
+        <v>407</v>
+      </c>
+      <c r="E110" t="s">
+        <v>408</v>
+      </c>
+      <c r="F110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>409</v>
+      </c>
+      <c r="C111" t="s">
+        <v>410</v>
+      </c>
+      <c r="E111" t="s">
+        <v>408</v>
+      </c>
+      <c r="F111" t="s">
+        <v>325</v>
+      </c>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>411</v>
+      </c>
+      <c r="C112" t="s">
+        <v>412</v>
+      </c>
+      <c r="E112" t="s">
+        <v>413</v>
+      </c>
+      <c r="F112" t="s">
+        <v>325</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>415</v>
+      </c>
+      <c r="C113" t="s">
+        <v>416</v>
+      </c>
+      <c r="D113" t="s">
+        <v>417</v>
+      </c>
+      <c r="E113" t="s">
+        <v>413</v>
+      </c>
+      <c r="F113" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" t="s">
+        <v>7</v>
+      </c>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116" t="s">
+        <v>23</v>
+      </c>
+      <c r="F116" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>24</v>
+      </c>
+      <c r="B117" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" t="s">
+        <v>26</v>
+      </c>
+      <c r="F117" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" t="s">
+        <v>29</v>
+      </c>
+      <c r="F118" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>130</v>
+      </c>
+      <c r="B119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" t="s">
+        <v>131</v>
+      </c>
+      <c r="E119" t="s">
+        <v>132</v>
+      </c>
+      <c r="F119" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>134</v>
+      </c>
+      <c r="B120" t="s">
+        <v>100</v>
+      </c>
+      <c r="C120" t="s">
+        <v>135</v>
+      </c>
+      <c r="D120" t="s">
+        <v>136</v>
+      </c>
+      <c r="E120" t="s">
+        <v>132</v>
+      </c>
+      <c r="F120" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>137</v>
+      </c>
+      <c r="C121" t="s">
+        <v>138</v>
+      </c>
+      <c r="D121" t="s">
+        <v>139</v>
+      </c>
+      <c r="E121" t="s">
+        <v>140</v>
+      </c>
+      <c r="F121" t="s">
+        <v>7</v>
+      </c>
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>141</v>
+      </c>
+      <c r="B122" t="s">
+        <v>100</v>
+      </c>
+      <c r="C122" t="s">
+        <v>142</v>
+      </c>
+      <c r="D122" t="s">
+        <v>143</v>
+      </c>
+      <c r="E122" t="s">
+        <v>140</v>
+      </c>
+      <c r="F122" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F1">
     <sortCondition ref="A1"/>
   </sortState>
-  <mergeCells count="15">
-    <mergeCell ref="G31:G32"/>
+  <mergeCells count="27">
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="G107:G111"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="G95:G100"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G103:G106"/>
+    <mergeCell ref="G62:G63"/>
     <mergeCell ref="G64:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="G49:G55"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G30"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G56:G63"/>
+    <mergeCell ref="G69:G79"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="G82:G90"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G55:G59"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="G40:G46"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="G116:G118"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G25"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="G119:G122"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="G47:G54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/repo/artificial_news.xlsx
+++ b/repo/artificial_news.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIN\Desktop\WebScrapying_news\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808A23D6-9724-4351-A518-BB8BA392AD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061B051D-5D22-4A75-B6BA-B0876B086D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="135" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18570" yWindow="3630" windowWidth="7530" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="421">
   <si>
     <t>Title</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>大雨掏空？汐止馬路地層下陷 全線封閉禁通行</t>
-  </si>
-  <si>
-    <t>汐止驚見地層下陷！新北市汐止區工建路上不明原因出現地層下陷，而上個禮拜就發生過，區公所趕緊進行挖填，沒想到這幾天又再度下陷。為避免發生危險，昨（22）天晚間9點開始該路段全線封閉，並在今（23）天早上進行大規模檢測，以及進行搶修工程，確保附近住戶安全。</t>
   </si>
   <si>
     <t>知名山城下陷中 印度逾600屋裂廟塌居民緊急撤離</t>
@@ -683,11 +680,6 @@
     <t>台北市南港天坑搶修完成 今中午12點全面通行</t>
   </si>
   <si>
-    <t>北市南港路3段47巷、昆陽街60巷交界，昨晚出現道路局部塌陷。連夜搶修下，預訂中午12點全面通行。
-昨晚天坑地點在一處機車停等區，地層下陷長約2公尺，寬約2公尺，深度約2公尺。由水利處派員擔任現場指揮官，進行擴大開挖作業。
-水利處指出，在連夜搶修下，已接續完成連接管脱管處鋼鈑包覆、灌漿回填及路面臨鋪作業，19日8時將先開放機車及小型轎車通行，預訂12點全面通行。北市天坑搶修完成。圖/北市府提供北市天坑搶修完成。圖/北市府提供</t>
-  </si>
-  <si>
     <t>北市4度出現「天坑」！北市府：皆非受輾壓破損</t>
   </si>
   <si>
@@ -1017,9 +1009,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>捷運萬大線</t>
-  </si>
-  <si>
     <t>雲林高鐵</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1169,9 +1158,6 @@
     <t>慶城街工地「導溝施作不佳」害路塌 蔣萬安：將進行緊急回填</t>
   </si>
   <si>
-    <t>台北市慶城街與興安街交叉口今（23）晚發生工地地基下陷，台北市長蔣萬安發出通知，提醒周遭居民和經過的民眾注意安全，蔣萬安及台北市副市長李四川目前也趕到事故現場，了解事發原因。蔣萬安受訪時指出，今晚9點左右接獲通報，慶城街與興安街交叉口一處新建工地發生下陷，第一時間即通知相關單位，現場也拉起警戒線，無人傷亡，不過造成四輛停放車輛傾斜。蔣萬安指出，目前新建工地還沒進行基礎開挖，即將準備施作的連續壁工程也還沒開始，只是在做導溝，初步了解是因為內部支撐力不夠，造成導溝外壁下陷，目前緊急回填導溝中。台北市結構技師公會理事長徐茂卿表示，「因為工地局部導溝施作不佳，造成道路坍陷，現在最重要的是，把導溝內的坑洞補起來，由於區域不大，災害擴大跡象不至於產生很大的影響。」</t>
-  </si>
-  <si>
     <t>北市慶城街工地突地基塌陷 柯文哲：這是本來就有的問題</t>
   </si>
   <si>
@@ -1711,6 +1697,35 @@
   </si>
   <si>
     <t>['地層下陷', '水利處', '全球暖化', '雲林縣', '漁港']</t>
+  </si>
+  <si>
+    <t>汐止驚見地層下陷！新北市汐止區工建路上不明原因出現地層下陷，而上個禮拜就發生過，區公所趕緊進行挖填，沒想到這幾天又再度下陷。為避免發生危險，昨（22）天晚間9點開始該路段全線封閉，並在今（23）天早上進行大規模檢測，以及進行搶修工程，確保附近住戶安全。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人為</t>
+  </si>
+  <si>
+    <t>不確定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷運萬大線</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北市南港路3段47巷、昆陽街60巷交界，昨晚出現道路局部塌陷。連夜搶修下，預訂中午12點全面通行。
+昨晚天坑地點在一處機車停等區，地層下陷長約2公尺，寬約2公尺，深度約2公尺。由水利處派員擔任現場指揮官，進行擴大開挖作業。
+水利處指出，在連夜搶修下，已接續完成連接管脱管處鋼鈑包覆、灌漿回填及路面臨鋪作業，19日8時將先開放機車及小型轎車通行，預訂12點全面通行。北市天坑搶修完成。圖/北市府提供北市天坑搶修完成。圖/北市府提供</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市慶城街與興安街交叉口今（23）晚發生工地地基下陷，台北市長蔣萬安發出通知，提醒周遭居民和經過的民眾注意安全，蔣萬安及台北市副市長李四川目前也趕到事故現場，了解事發原因。蔣萬安受訪時指出，今晚9點左右接獲通報，慶城街與興安街交叉口一處新建工地發生下陷，第一時間即通知相關單位，現場也拉起警戒線，無人傷亡，不過造成四輛停放車輛傾斜。蔣萬安指出，目前新建工地還沒進行基礎開挖，即將準備施作的連續壁工程也還沒開始，只是在做導溝，初步了解是因為內部支撐力不夠，造成導溝外壁下陷，目前緊急回填導溝中。台北市結構技師公會理事長徐茂卿表示，「因為工地局部導溝施作不佳，造成道路坍陷，現在最重要的是，把導溝內的坑洞補起來，由於區域不大，災害擴大跡象不至於產生很大的影響。」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1740,12 +1755,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1775,7 +1802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1786,6 +1813,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2066,10 +2098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="A2:G6"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95:G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2078,7 +2110,7 @@
     <col min="7" max="7" width="73.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2098,7 +2130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -2117,8 +2149,9 @@
       <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2135,13 +2168,14 @@
         <v>6</v>
       </c>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
@@ -2153,561 +2187,577 @@
         <v>6</v>
       </c>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
         <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
         <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
         <v>54</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>55</v>
       </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
         <v>57</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>58</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>59</v>
       </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
         <v>61</v>
       </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>62</v>
       </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
         <v>64</v>
       </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>65</v>
       </c>
-      <c r="D12" t="s">
-        <v>66</v>
-      </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
         <v>67</v>
       </c>
-      <c r="B13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
         <v>69</v>
       </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
         <v>71</v>
       </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>72</v>
       </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
         <v>74</v>
       </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
         <v>76</v>
       </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>77</v>
       </c>
-      <c r="D17" t="s">
-        <v>78</v>
-      </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
         <v>79</v>
       </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
         <v>81</v>
       </c>
-      <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>82</v>
       </c>
-      <c r="D19" t="s">
-        <v>83</v>
-      </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
         <v>84</v>
       </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
         <v>86</v>
       </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>87</v>
-      </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
         <v>89</v>
-      </c>
-      <c r="E22" t="s">
-        <v>90</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s">
         <v>93</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>94</v>
       </c>
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
         <v>96</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>97</v>
       </c>
-      <c r="D25" t="s">
-        <v>98</v>
-      </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" t="s">
         <v>99</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>100</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>101</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>102</v>
-      </c>
-      <c r="E26" t="s">
-        <v>103</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" t="s">
         <v>105</v>
       </c>
-      <c r="B27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>106</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>107</v>
-      </c>
-      <c r="E27" t="s">
-        <v>108</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
         <v>109</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>110</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>111</v>
-      </c>
-      <c r="E28" t="s">
-        <v>112</v>
       </c>
       <c r="F28" t="s">
         <v>6</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>114</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>115</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>116</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>117</v>
-      </c>
-      <c r="E29" t="s">
-        <v>118</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
         <v>119</v>
       </c>
-      <c r="B30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" t="s">
         <v>120</v>
-      </c>
-      <c r="D30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" t="s">
-        <v>121</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
         <v>122</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>123</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>124</v>
-      </c>
-      <c r="E31" t="s">
-        <v>125</v>
       </c>
       <c r="F31" t="s">
         <v>6</v>
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
         <v>126</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>127</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>128</v>
-      </c>
-      <c r="E32" t="s">
-        <v>129</v>
       </c>
       <c r="F32" t="s">
         <v>7</v>
@@ -2716,39 +2766,39 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
         <v>144</v>
       </c>
-      <c r="B33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>145</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>146</v>
-      </c>
-      <c r="E33" t="s">
-        <v>147</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" t="s">
         <v>149</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>150</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>151</v>
-      </c>
-      <c r="E34" t="s">
-        <v>152</v>
       </c>
       <c r="F34" t="s">
         <v>6</v>
@@ -2757,36 +2807,36 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" t="s">
         <v>153</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>154</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>155</v>
-      </c>
-      <c r="E35" t="s">
-        <v>156</v>
       </c>
       <c r="F35" t="s">
         <v>7</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
         <v>158</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>159</v>
       </c>
-      <c r="D36" t="s">
-        <v>160</v>
-      </c>
       <c r="E36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F36" t="s">
         <v>6</v>
@@ -2795,60 +2845,60 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" t="s">
         <v>161</v>
       </c>
-      <c r="B37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>162</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>163</v>
-      </c>
-      <c r="E37" t="s">
-        <v>164</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
       <c r="C38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" t="s">
         <v>167</v>
-      </c>
-      <c r="E38" t="s">
-        <v>168</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" t="s">
-        <v>170</v>
+        <v>99</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>419</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -2857,39 +2907,39 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" t="s">
         <v>171</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>172</v>
-      </c>
-      <c r="D40" t="s">
-        <v>173</v>
-      </c>
-      <c r="E40" t="s">
-        <v>174</v>
       </c>
       <c r="F40" t="s">
         <v>6</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="D41" t="s">
         <v>176</v>
       </c>
-      <c r="B41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" t="s">
-        <v>178</v>
-      </c>
       <c r="E41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -2898,19 +2948,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -2919,16 +2969,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
@@ -2937,16 +2987,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>182</v>
+      </c>
+      <c r="B44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" t="s">
         <v>184</v>
       </c>
-      <c r="B44" t="s">
+      <c r="E44" t="s">
         <v>185</v>
-      </c>
-      <c r="C44" t="s">
-        <v>186</v>
-      </c>
-      <c r="E44" t="s">
-        <v>187</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
@@ -2955,19 +3005,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" t="s">
         <v>188</v>
       </c>
-      <c r="B45" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" t="s">
-        <v>189</v>
-      </c>
-      <c r="D45" t="s">
-        <v>190</v>
-      </c>
       <c r="E45" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -2976,19 +3026,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" t="s">
         <v>191</v>
       </c>
-      <c r="B46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>192</v>
-      </c>
-      <c r="D46" t="s">
-        <v>193</v>
-      </c>
-      <c r="E46" t="s">
-        <v>194</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -2997,78 +3047,78 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" t="s">
         <v>195</v>
       </c>
-      <c r="B47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>196</v>
-      </c>
-      <c r="D47" t="s">
-        <v>197</v>
-      </c>
-      <c r="E47" t="s">
-        <v>198</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" t="s">
         <v>199</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>200</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
         <v>201</v>
-      </c>
-      <c r="E48" t="s">
-        <v>202</v>
-      </c>
-      <c r="F48" t="s">
-        <v>203</v>
       </c>
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" t="s">
+        <v>203</v>
+      </c>
+      <c r="D49" t="s">
         <v>204</v>
       </c>
-      <c r="C49" t="s">
-        <v>205</v>
-      </c>
-      <c r="D49" t="s">
-        <v>206</v>
-      </c>
       <c r="E49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F49" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D50" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E50" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -3077,111 +3127,111 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" t="s">
         <v>210</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
         <v>211</v>
       </c>
-      <c r="D51" t="s">
-        <v>212</v>
-      </c>
-      <c r="E51" t="s">
-        <v>213</v>
-      </c>
       <c r="F51" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" t="s">
         <v>214</v>
       </c>
-      <c r="C52" t="s">
-        <v>215</v>
-      </c>
-      <c r="D52" t="s">
-        <v>216</v>
-      </c>
       <c r="E52" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F52" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>215</v>
+      </c>
+      <c r="C53" t="s">
+        <v>216</v>
+      </c>
+      <c r="D53" t="s">
         <v>217</v>
       </c>
-      <c r="C53" t="s">
-        <v>218</v>
-      </c>
-      <c r="D53" t="s">
-        <v>219</v>
-      </c>
       <c r="E53" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F53" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54" t="s">
         <v>238</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>239</v>
       </c>
-      <c r="D54" t="s">
-        <v>240</v>
-      </c>
-      <c r="E54" t="s">
-        <v>241</v>
-      </c>
       <c r="F54" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55" t="s">
+        <v>219</v>
+      </c>
+      <c r="D55" t="s">
         <v>220</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>221</v>
-      </c>
-      <c r="D55" t="s">
-        <v>222</v>
-      </c>
-      <c r="E55" t="s">
-        <v>223</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>222</v>
+      </c>
+      <c r="B56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" t="s">
+        <v>223</v>
+      </c>
+      <c r="D56" t="s">
         <v>224</v>
       </c>
-      <c r="B56" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>225</v>
-      </c>
-      <c r="D56" t="s">
-        <v>226</v>
-      </c>
-      <c r="E56" t="s">
-        <v>227</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -3190,19 +3240,19 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>226</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>227</v>
+      </c>
+      <c r="D57" t="s">
         <v>228</v>
       </c>
-      <c r="B57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" t="s">
-        <v>229</v>
-      </c>
-      <c r="D57" t="s">
-        <v>230</v>
-      </c>
       <c r="E57" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -3211,19 +3261,19 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>229</v>
+      </c>
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D58" t="s">
         <v>231</v>
       </c>
-      <c r="B58" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
         <v>232</v>
-      </c>
-      <c r="D58" t="s">
-        <v>233</v>
-      </c>
-      <c r="E58" t="s">
-        <v>234</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -3232,19 +3282,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>233</v>
+      </c>
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" t="s">
+        <v>234</v>
+      </c>
+      <c r="D59" t="s">
         <v>235</v>
       </c>
-      <c r="B59" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" t="s">
-        <v>236</v>
-      </c>
-      <c r="D59" t="s">
-        <v>237</v>
-      </c>
       <c r="E59" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -3253,42 +3303,42 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>240</v>
+      </c>
+      <c r="B60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" t="s">
+        <v>241</v>
+      </c>
+      <c r="D60" t="s">
         <v>242</v>
       </c>
-      <c r="B60" t="s">
-        <v>100</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="E60" t="s">
         <v>243</v>
-      </c>
-      <c r="D60" t="s">
-        <v>244</v>
-      </c>
-      <c r="E60" t="s">
-        <v>245</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>251</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>244</v>
+      </c>
+      <c r="B61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" t="s">
+        <v>245</v>
+      </c>
+      <c r="D61" t="s">
         <v>246</v>
       </c>
-      <c r="B61" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" t="s">
-        <v>247</v>
-      </c>
-      <c r="D61" t="s">
-        <v>248</v>
-      </c>
       <c r="E61" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -3297,36 +3347,36 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>250</v>
+      </c>
+      <c r="C62" t="s">
+        <v>251</v>
+      </c>
+      <c r="D62" t="s">
+        <v>252</v>
+      </c>
+      <c r="E62" t="s">
         <v>253</v>
-      </c>
-      <c r="C62" t="s">
-        <v>254</v>
-      </c>
-      <c r="D62" t="s">
-        <v>255</v>
-      </c>
-      <c r="E62" t="s">
-        <v>256</v>
       </c>
       <c r="F62" t="s">
         <v>6</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>255</v>
+      </c>
+      <c r="C63" t="s">
+        <v>256</v>
+      </c>
+      <c r="D63" t="s">
+        <v>257</v>
+      </c>
+      <c r="E63" t="s">
         <v>258</v>
-      </c>
-      <c r="C63" t="s">
-        <v>259</v>
-      </c>
-      <c r="D63" t="s">
-        <v>260</v>
-      </c>
-      <c r="E63" t="s">
-        <v>261</v>
       </c>
       <c r="F63" t="s">
         <v>6</v>
@@ -3335,39 +3385,39 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>259</v>
+      </c>
+      <c r="B64" t="s">
+        <v>260</v>
+      </c>
+      <c r="C64" t="s">
+        <v>261</v>
+      </c>
+      <c r="D64" t="s">
         <v>262</v>
       </c>
-      <c r="B64" t="s">
+      <c r="E64" t="s">
         <v>263</v>
-      </c>
-      <c r="C64" t="s">
-        <v>264</v>
-      </c>
-      <c r="D64" t="s">
-        <v>265</v>
-      </c>
-      <c r="E64" t="s">
-        <v>266</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C65" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E65" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F65" t="s">
         <v>11</v>
@@ -3376,19 +3426,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B66" t="s">
+        <v>260</v>
+      </c>
+      <c r="C66" t="s">
+        <v>268</v>
+      </c>
+      <c r="D66" t="s">
+        <v>269</v>
+      </c>
+      <c r="E66" t="s">
         <v>263</v>
-      </c>
-      <c r="C66" t="s">
-        <v>271</v>
-      </c>
-      <c r="D66" t="s">
-        <v>272</v>
-      </c>
-      <c r="E66" t="s">
-        <v>266</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -3397,19 +3447,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B67" t="s">
+        <v>260</v>
+      </c>
+      <c r="C67" t="s">
+        <v>271</v>
+      </c>
+      <c r="D67" t="s">
+        <v>272</v>
+      </c>
+      <c r="E67" t="s">
         <v>263</v>
-      </c>
-      <c r="C67" t="s">
-        <v>274</v>
-      </c>
-      <c r="D67" t="s">
-        <v>275</v>
-      </c>
-      <c r="E67" t="s">
-        <v>266</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -3418,19 +3468,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>273</v>
+      </c>
+      <c r="B68" t="s">
+        <v>260</v>
+      </c>
+      <c r="C68" t="s">
+        <v>274</v>
+      </c>
+      <c r="D68" t="s">
+        <v>275</v>
+      </c>
+      <c r="E68" t="s">
         <v>276</v>
-      </c>
-      <c r="B68" t="s">
-        <v>263</v>
-      </c>
-      <c r="C68" t="s">
-        <v>277</v>
-      </c>
-      <c r="D68" t="s">
-        <v>278</v>
-      </c>
-      <c r="E68" t="s">
-        <v>279</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
@@ -3439,36 +3489,36 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>277</v>
+      </c>
+      <c r="C69" t="s">
+        <v>278</v>
+      </c>
+      <c r="D69" t="s">
+        <v>279</v>
+      </c>
+      <c r="E69" t="s">
         <v>280</v>
       </c>
-      <c r="C69" t="s">
+      <c r="F69" t="s">
+        <v>201</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="D69" t="s">
-        <v>282</v>
-      </c>
-      <c r="E69" t="s">
-        <v>283</v>
-      </c>
-      <c r="F69" t="s">
-        <v>203</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C70" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D70" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E70" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
@@ -3477,16 +3527,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C71" t="s">
-        <v>289</v>
+        <v>420</v>
       </c>
       <c r="D71" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E71" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F71" t="s">
         <v>6</v>
@@ -3495,16 +3545,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C72" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E72" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F72" t="s">
         <v>11</v>
@@ -3513,16 +3563,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C73" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D73" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E73" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F73" t="s">
         <v>6</v>
@@ -3531,16 +3581,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C74" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D74" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E74" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F74" t="s">
         <v>6</v>
@@ -3549,16 +3599,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C75" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D75" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E75" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F75" t="s">
         <v>6</v>
@@ -3567,16 +3617,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C76" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D76" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E76" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F76" t="s">
         <v>6</v>
@@ -3585,16 +3635,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C77" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D77" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E77" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F77" t="s">
         <v>6</v>
@@ -3603,19 +3653,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D78" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E78" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F78" t="s">
         <v>9</v>
@@ -3624,16 +3674,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C79" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D79" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E79" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F79" t="s">
         <v>6</v>
@@ -3642,36 +3692,36 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C80" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E80" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F80" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B81" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C81" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E81" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F81" t="s">
         <v>11</v>
@@ -3680,63 +3730,63 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>318</v>
+      </c>
+      <c r="C82" t="s">
+        <v>319</v>
+      </c>
+      <c r="E82" t="s">
+        <v>320</v>
+      </c>
+      <c r="F82" t="s">
+        <v>321</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="C82" t="s">
-        <v>323</v>
-      </c>
-      <c r="E82" t="s">
-        <v>324</v>
-      </c>
-      <c r="F82" t="s">
-        <v>325</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C83" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E83" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F83" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G83" s="2"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C84" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E84" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F84" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G84" s="2"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B85" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C85" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E85" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F85" t="s">
         <v>11</v>
@@ -3745,76 +3795,76 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C86" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E86" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F86" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G86" s="2"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C87" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E87" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F87" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G87" s="2"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C88" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E88" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F88" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G88" s="2"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C89" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E89" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F89" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G89" s="2"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B90" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C90" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E90" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F90" t="s">
         <v>11</v>
@@ -3823,157 +3873,157 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B91" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C91" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D91" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E91" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F91" t="s">
         <v>9</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C92" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D92" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E92" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F92" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G92" s="2"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C93" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E93" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F93" t="s">
         <v>11</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C94" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E94" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F94" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G94" s="2"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E95" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F95" t="s">
         <v>11</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C96" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E96" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F96" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G96" s="2"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C97" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E97" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F97" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G97" s="2"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C98" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E98" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F98" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G98" s="2"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B99" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C99" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E99" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F99" t="s">
         <v>11</v>
@@ -3982,86 +4032,86 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C100" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E100" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F100" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G100" s="2"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C101" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E101" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F101" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C102" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E102" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F102" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G102" s="2"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B103" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C103" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E103" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F103" t="s">
         <v>11</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C104" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D104" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E104" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F104" t="s">
         <v>9</v>
@@ -4070,16 +4120,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C105" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D105" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E105" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F105" t="s">
         <v>7</v>
@@ -4088,19 +4138,19 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C106" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D106" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E106" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F106" t="s">
         <v>9</v>
@@ -4109,48 +4159,48 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C107" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E107" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F107" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C108" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E108" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F108" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G108" s="2"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B109" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C109" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E109" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F109" t="s">
         <v>11</v>
@@ -4159,16 +4209,16 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B110" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C110" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E110" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F110" t="s">
         <v>11</v>
@@ -4177,48 +4227,48 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C111" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E111" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F111" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G111" s="2"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C112" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E112" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F112" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C113" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D113" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E113" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F113" t="s">
         <v>7</v>
@@ -4280,7 +4330,7 @@
         <v>7</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4321,39 +4371,39 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
       </c>
       <c r="C119" t="s">
+        <v>130</v>
+      </c>
+      <c r="E119" t="s">
         <v>131</v>
-      </c>
-      <c r="E119" t="s">
-        <v>132</v>
       </c>
       <c r="F119" t="s">
         <v>11</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120" t="s">
+        <v>99</v>
+      </c>
+      <c r="C120" t="s">
         <v>134</v>
       </c>
-      <c r="B120" t="s">
-        <v>100</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>135</v>
       </c>
-      <c r="D120" t="s">
-        <v>136</v>
-      </c>
       <c r="E120" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F120" t="s">
         <v>9</v>
@@ -4362,16 +4412,16 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>136</v>
+      </c>
+      <c r="C121" t="s">
         <v>137</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>138</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>139</v>
-      </c>
-      <c r="E121" t="s">
-        <v>140</v>
       </c>
       <c r="F121" t="s">
         <v>7</v>
@@ -4380,19 +4430,19 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>140</v>
+      </c>
+      <c r="B122" t="s">
+        <v>99</v>
+      </c>
+      <c r="C122" t="s">
         <v>141</v>
       </c>
-      <c r="B122" t="s">
-        <v>100</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>142</v>
       </c>
-      <c r="D122" t="s">
-        <v>143</v>
-      </c>
       <c r="E122" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F122" t="s">
         <v>9</v>
@@ -4404,6 +4454,26 @@
     <sortCondition ref="A1"/>
   </sortState>
   <mergeCells count="27">
+    <mergeCell ref="G119:G122"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="G47:G54"/>
+    <mergeCell ref="G116:G118"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G25"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G55:G59"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="G40:G46"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="G64:G68"/>
+    <mergeCell ref="G69:G79"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="G82:G90"/>
     <mergeCell ref="G112:G113"/>
     <mergeCell ref="G107:G111"/>
     <mergeCell ref="G91:G92"/>
@@ -4411,26 +4481,6 @@
     <mergeCell ref="G95:G100"/>
     <mergeCell ref="G101:G102"/>
     <mergeCell ref="G103:G106"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="G64:G68"/>
-    <mergeCell ref="G69:G79"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="G82:G90"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G55:G59"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="G40:G46"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="G116:G118"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G25"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="G119:G122"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="G47:G54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
